--- a/config_9.21/task_server.xlsx
+++ b/config_9.21/task_server.xlsx
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="601">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2268,19 +2268,372 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>fish_game_id</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>新人七天乐（day2）-累计使用1\3\10次锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day3）-累计开炮200\500\1000\3000\5000发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新人七天乐（day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1）-累计捕获5\10\20\30\50条鱼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day4）-累计捕获20\50\100\200\500条鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day5）-累计捕获1\5\10\15\20条黄金鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day6）-累计消耗1000\5000\10000\30000\50000万金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day7）-累计充值10\100\200\500\1000元</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐总任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xrqtl_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_xrqtl_new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_6</t>
+  </si>
+  <si>
+    <t>new_player_seven_day_7</t>
+  </si>
+  <si>
+    <t>new_player_seven_day_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40,100,150,100,100</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5,10,10,20</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,2,7</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30,50,100,300</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,4,5,10,5</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,40000000,50000000,200000000,200000000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,9000,10000,30000,50000</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>use_fish_3d_bullet_item</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>fish_prop</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
+    <t>fish_prop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_target_yu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,21,22,23,24,25,26,27</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2288,11 +2641,426 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_spend_num</t>
+    <t>agent_charge_any</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>fish_game_id</t>
+    <t>agent_charge_any</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95,196,197,198,199</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day2）-累计使用3\10次冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,202,204</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,203</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05,206,207,208,209</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,221,222,223,224</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_30032</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,231,232,233,234,235</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2357,7 +3125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2436,6 +3204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2476,7 +3250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2678,21 +3452,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2714,6 +3475,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2993,11 +3798,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7310,193 +8115,535 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="82" customFormat="1">
-      <c r="A119" s="82">
+    <row r="119" spans="1:12" s="77" customFormat="1">
+      <c r="A119" s="77">
         <v>30019</v>
       </c>
-      <c r="B119" s="82">
-        <v>1</v>
-      </c>
-      <c r="C119" s="82" t="s">
+      <c r="B119" s="77">
+        <v>1</v>
+      </c>
+      <c r="C119" s="77" t="s">
         <v>497</v>
       </c>
-      <c r="D119" s="82" t="s">
+      <c r="D119" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="E119" s="83" t="s">
+      <c r="E119" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="F119" s="82">
+      <c r="F119" s="77">
         <v>119</v>
       </c>
-      <c r="G119" s="82" t="b">
+      <c r="G119" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H119" s="82">
-        <v>1</v>
-      </c>
-      <c r="I119" s="82">
+      <c r="H119" s="77">
+        <v>1</v>
+      </c>
+      <c r="I119" s="77">
         <v>946677600</v>
       </c>
-      <c r="J119" s="82">
+      <c r="J119" s="77">
         <v>32503651200</v>
       </c>
-      <c r="K119" s="82">
+      <c r="K119" s="77">
         <v>-1</v>
       </c>
-      <c r="L119" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="82" customFormat="1">
-      <c r="A120" s="82">
+      <c r="L119" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="77" customFormat="1">
+      <c r="A120" s="77">
         <v>30020</v>
       </c>
-      <c r="B120" s="82">
-        <v>1</v>
-      </c>
-      <c r="C120" s="82" t="s">
+      <c r="B120" s="77">
+        <v>1</v>
+      </c>
+      <c r="C120" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="D120" s="82" t="s">
+      <c r="D120" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="E120" s="83" t="s">
+      <c r="E120" s="78" t="s">
         <v>504</v>
       </c>
-      <c r="F120" s="82">
+      <c r="F120" s="77">
         <v>120</v>
       </c>
-      <c r="G120" s="82" t="b">
+      <c r="G120" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H120" s="82">
-        <v>1</v>
-      </c>
-      <c r="I120" s="82">
+      <c r="H120" s="77">
+        <v>1</v>
+      </c>
+      <c r="I120" s="77">
         <v>946677600</v>
       </c>
-      <c r="J120" s="82">
+      <c r="J120" s="77">
         <v>32503651200</v>
       </c>
-      <c r="K120" s="82">
+      <c r="K120" s="77">
         <v>-1</v>
       </c>
-      <c r="L120" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" s="82" customFormat="1">
-      <c r="A121" s="82">
+      <c r="L120" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="77" customFormat="1">
+      <c r="A121" s="77">
         <v>30021</v>
       </c>
-      <c r="B121" s="82">
-        <v>1</v>
-      </c>
-      <c r="C121" s="82" t="s">
+      <c r="B121" s="77">
+        <v>1</v>
+      </c>
+      <c r="C121" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="82" t="s">
+      <c r="D121" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="E121" s="83" t="s">
+      <c r="E121" s="78" t="s">
         <v>505</v>
       </c>
-      <c r="F121" s="82">
+      <c r="F121" s="77">
         <v>121</v>
       </c>
-      <c r="G121" s="82" t="b">
+      <c r="G121" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H121" s="82">
-        <v>1</v>
-      </c>
-      <c r="I121" s="82">
+      <c r="H121" s="77">
+        <v>1</v>
+      </c>
+      <c r="I121" s="77">
         <v>946677600</v>
       </c>
-      <c r="J121" s="82">
+      <c r="J121" s="77">
         <v>32503651200</v>
       </c>
-      <c r="K121" s="82">
+      <c r="K121" s="77">
         <v>-1</v>
       </c>
-      <c r="L121" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="82" customFormat="1">
-      <c r="A122" s="82">
+      <c r="L121" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" s="77" customFormat="1">
+      <c r="A122" s="77">
         <v>30022</v>
       </c>
-      <c r="B122" s="82">
-        <v>1</v>
-      </c>
-      <c r="C122" s="82" t="s">
+      <c r="B122" s="77">
+        <v>1</v>
+      </c>
+      <c r="C122" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="D122" s="82" t="s">
+      <c r="D122" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="E122" s="83" t="s">
+      <c r="E122" s="78" t="s">
         <v>506</v>
       </c>
-      <c r="F122" s="82">
+      <c r="F122" s="77">
         <v>122</v>
       </c>
-      <c r="G122" s="82" t="b">
+      <c r="G122" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H122" s="82">
-        <v>1</v>
-      </c>
-      <c r="I122" s="82">
+      <c r="H122" s="77">
+        <v>1</v>
+      </c>
+      <c r="I122" s="77">
         <v>946677600</v>
       </c>
-      <c r="J122" s="82">
+      <c r="J122" s="77">
         <v>32503651200</v>
       </c>
-      <c r="K122" s="82">
+      <c r="K122" s="77">
         <v>-1</v>
       </c>
-      <c r="L122" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="82" customFormat="1">
-      <c r="A123" s="82">
+      <c r="L122" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="77" customFormat="1">
+      <c r="A123" s="77">
         <v>30023</v>
       </c>
-      <c r="B123" s="82">
-        <v>1</v>
-      </c>
-      <c r="C123" s="82" t="s">
+      <c r="B123" s="77">
+        <v>1</v>
+      </c>
+      <c r="C123" s="77" t="s">
         <v>501</v>
       </c>
-      <c r="D123" s="82" t="s">
+      <c r="D123" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="E123" s="83" t="s">
+      <c r="E123" s="78" t="s">
         <v>507</v>
       </c>
-      <c r="F123" s="82">
+      <c r="F123" s="77">
         <v>123</v>
       </c>
-      <c r="G123" s="82" t="b">
+      <c r="G123" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H123" s="82">
-        <v>1</v>
-      </c>
-      <c r="I123" s="82">
+      <c r="H123" s="77">
+        <v>1</v>
+      </c>
+      <c r="I123" s="77">
         <v>946677600</v>
       </c>
-      <c r="J123" s="82">
+      <c r="J123" s="77">
         <v>32503651200</v>
       </c>
-      <c r="K123" s="82">
+      <c r="K123" s="77">
         <v>-1</v>
       </c>
-      <c r="L123" s="82">
+      <c r="L123" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="87" customFormat="1">
+      <c r="A124" s="87">
+        <v>30024</v>
+      </c>
+      <c r="B124" s="87">
+        <v>1</v>
+      </c>
+      <c r="C124" s="88" t="s">
+        <v>520</v>
+      </c>
+      <c r="D124" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="E124" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="F124" s="87">
+        <v>124</v>
+      </c>
+      <c r="G124" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="87">
+        <v>1</v>
+      </c>
+      <c r="I124" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J124" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K124" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L124" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="87" customFormat="1">
+      <c r="A125" s="87">
+        <v>30025</v>
+      </c>
+      <c r="B125" s="87">
+        <v>1</v>
+      </c>
+      <c r="C125" s="88" t="s">
+        <v>518</v>
+      </c>
+      <c r="D125" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E125" s="88" t="s">
+        <v>529</v>
+      </c>
+      <c r="F125" s="87">
+        <v>125</v>
+      </c>
+      <c r="G125" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="87">
+        <v>1</v>
+      </c>
+      <c r="I125" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J125" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K125" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="87" customFormat="1">
+      <c r="A126" s="87">
+        <v>30026</v>
+      </c>
+      <c r="B126" s="87">
+        <v>1</v>
+      </c>
+      <c r="C126" s="88" t="s">
+        <v>572</v>
+      </c>
+      <c r="D126" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="E126" s="88" t="s">
+        <v>529</v>
+      </c>
+      <c r="F126" s="87">
+        <v>126</v>
+      </c>
+      <c r="G126" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="87">
+        <v>1</v>
+      </c>
+      <c r="I126" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J126" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K126" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L126" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="87" customFormat="1">
+      <c r="A127" s="87">
+        <v>30027</v>
+      </c>
+      <c r="B127" s="87">
+        <v>1</v>
+      </c>
+      <c r="C127" s="88" t="s">
+        <v>519</v>
+      </c>
+      <c r="D127" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>532</v>
+      </c>
+      <c r="F127" s="87">
+        <v>127</v>
+      </c>
+      <c r="G127" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="87">
+        <v>1</v>
+      </c>
+      <c r="I127" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J127" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K127" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L127" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="87" customFormat="1">
+      <c r="A128" s="87">
+        <v>30028</v>
+      </c>
+      <c r="B128" s="87">
+        <v>1</v>
+      </c>
+      <c r="C128" s="88" t="s">
+        <v>521</v>
+      </c>
+      <c r="D128" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" s="88" t="s">
+        <v>533</v>
+      </c>
+      <c r="F128" s="87">
+        <v>128</v>
+      </c>
+      <c r="G128" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="87">
+        <v>1</v>
+      </c>
+      <c r="I128" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J128" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K128" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L128" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="87" customFormat="1">
+      <c r="A129" s="87">
+        <v>30029</v>
+      </c>
+      <c r="B129" s="87">
+        <v>1</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>522</v>
+      </c>
+      <c r="D129" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E129" s="88" t="s">
+        <v>534</v>
+      </c>
+      <c r="F129" s="87">
+        <v>129</v>
+      </c>
+      <c r="G129" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="87">
+        <v>1</v>
+      </c>
+      <c r="I129" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J129" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K129" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="87" customFormat="1">
+      <c r="A130" s="87">
+        <v>30030</v>
+      </c>
+      <c r="B130" s="87">
+        <v>1</v>
+      </c>
+      <c r="C130" s="88" t="s">
+        <v>523</v>
+      </c>
+      <c r="D130" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="E130" s="88" t="s">
+        <v>530</v>
+      </c>
+      <c r="F130" s="87">
+        <v>130</v>
+      </c>
+      <c r="G130" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="87">
+        <v>1</v>
+      </c>
+      <c r="I130" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J130" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K130" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L130" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="87" customFormat="1">
+      <c r="A131" s="87">
+        <v>30031</v>
+      </c>
+      <c r="B131" s="87">
+        <v>1</v>
+      </c>
+      <c r="C131" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="D131" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E131" s="88" t="s">
+        <v>531</v>
+      </c>
+      <c r="F131" s="87">
+        <v>131</v>
+      </c>
+      <c r="G131" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="87">
+        <v>1</v>
+      </c>
+      <c r="I131" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J131" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K131" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L131" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="87" customFormat="1">
+      <c r="A132" s="87">
+        <v>30032</v>
+      </c>
+      <c r="B132" s="87">
+        <v>1</v>
+      </c>
+      <c r="C132" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="E132" s="88" t="s">
+        <v>535</v>
+      </c>
+      <c r="F132" s="87">
+        <v>132</v>
+      </c>
+      <c r="G132" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="87">
+        <v>1</v>
+      </c>
+      <c r="I132" s="87">
+        <v>1604937600</v>
+      </c>
+      <c r="J132" s="87">
+        <v>32503651200</v>
+      </c>
+      <c r="K132" s="87">
+        <v>-1</v>
+      </c>
+      <c r="L132" s="87">
         <v>1</v>
       </c>
     </row>
@@ -7510,18 +8657,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="59.5" style="48" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
@@ -7544,7 +8691,7 @@
       <c r="E1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="49" t="s">
         <v>201</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7581,7 +8728,7 @@
         <v>207</v>
       </c>
       <c r="G2" s="50"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7604,11 +8751,11 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="92" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7631,11 +8778,11 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="92" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="75" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7662,7 +8809,7 @@
         <v>212</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7685,7 +8832,7 @@
       <c r="E6" s="12">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="51">
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
@@ -7713,7 +8860,7 @@
       <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="48">
         <v>10</v>
       </c>
       <c r="H7" s="48">
@@ -7739,7 +8886,7 @@
       <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="48">
         <v>8</v>
       </c>
       <c r="H8" s="48">
@@ -7765,7 +8912,7 @@
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="48">
         <v>1</v>
       </c>
       <c r="H9" s="48">
@@ -7792,7 +8939,7 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="48">
         <v>1</v>
       </c>
       <c r="H10" s="48">
@@ -7818,7 +8965,7 @@
       <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="48">
         <v>5</v>
       </c>
       <c r="H11" s="48">
@@ -7844,7 +8991,7 @@
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="48">
         <v>1</v>
       </c>
       <c r="H12" s="48">
@@ -7870,7 +9017,7 @@
       <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="48">
         <v>8</v>
       </c>
       <c r="H13" s="48">
@@ -7896,7 +9043,7 @@
       <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="48">
         <v>5</v>
       </c>
       <c r="H14" s="48">
@@ -7922,7 +9069,7 @@
       <c r="E15" s="4">
         <v>18</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="48">
         <v>1</v>
       </c>
       <c r="H15" s="48">
@@ -7948,7 +9095,7 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="48">
         <v>1000</v>
       </c>
       <c r="H16" s="48">
@@ -7974,7 +9121,7 @@
       <c r="E17" s="4">
         <v>19</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="48">
         <v>1</v>
       </c>
       <c r="H17" s="48">
@@ -8000,7 +9147,7 @@
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="48">
         <v>1</v>
       </c>
       <c r="H18" s="48">
@@ -8026,7 +9173,7 @@
       <c r="E19" s="4">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="48">
         <v>5</v>
       </c>
       <c r="H19" s="48">
@@ -8052,7 +9199,7 @@
       <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="48">
         <v>1</v>
       </c>
       <c r="H20" s="48">
@@ -8078,7 +9225,7 @@
       <c r="E21" s="4">
         <v>10</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="48">
         <v>1</v>
       </c>
       <c r="H21" s="48">
@@ -8104,7 +9251,7 @@
       <c r="E22" s="4">
         <v>8</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="48">
         <v>5</v>
       </c>
       <c r="H22" s="48">
@@ -8130,7 +9277,7 @@
       <c r="E23" s="4">
         <v>11</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="48">
         <v>3</v>
       </c>
       <c r="H23" s="48">
@@ -8156,7 +9303,7 @@
       <c r="E24" s="4">
         <v>9</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="48">
         <v>5</v>
       </c>
       <c r="H24" s="48">
@@ -8182,7 +9329,7 @@
       <c r="E25" s="4">
         <v>9</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="48">
         <v>5</v>
       </c>
       <c r="H25" s="48">
@@ -8208,7 +9355,7 @@
       <c r="E26" s="4">
         <v>20</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="48">
         <v>1</v>
       </c>
       <c r="H26" s="48">
@@ -8234,7 +9381,7 @@
       <c r="E27" s="4">
         <v>13</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="48">
         <v>5</v>
       </c>
       <c r="H27" s="48">
@@ -8260,7 +9407,7 @@
       <c r="E28" s="4">
         <v>11</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="48">
         <v>5</v>
       </c>
       <c r="H28" s="48">
@@ -8286,7 +9433,7 @@
       <c r="E29" s="4">
         <v>14</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="48">
         <v>5</v>
       </c>
       <c r="H29" s="48">
@@ -8312,7 +9459,7 @@
       <c r="E30" s="4">
         <v>12</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="48">
         <v>10</v>
       </c>
       <c r="H30" s="48">
@@ -8338,7 +9485,7 @@
       <c r="E31" s="4">
         <v>21</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="48">
         <v>1</v>
       </c>
       <c r="H31" s="48">
@@ -8364,7 +9511,7 @@
       <c r="E32" s="4">
         <v>7</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="48">
         <v>1</v>
       </c>
       <c r="H32" s="48">
@@ -8390,7 +9537,7 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="48">
         <v>1</v>
       </c>
       <c r="H33" s="48">
@@ -8416,7 +9563,7 @@
       <c r="E34" s="4">
         <v>7</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="48">
         <v>5</v>
       </c>
       <c r="H34" s="48">
@@ -8442,7 +9589,7 @@
       <c r="E35" s="4">
         <v>10</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="48">
         <v>1</v>
       </c>
       <c r="H35" s="48">
@@ -8468,7 +9615,7 @@
       <c r="E36" s="4">
         <v>7</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="48">
         <v>5</v>
       </c>
       <c r="H36" s="48">
@@ -8494,7 +9641,7 @@
       <c r="E37" s="4">
         <v>0</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="48">
         <v>20000</v>
       </c>
       <c r="H37" s="48">
@@ -8520,7 +9667,7 @@
       <c r="E38" s="4">
         <v>0</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="48">
         <v>1</v>
       </c>
       <c r="H38" s="48">
@@ -8546,7 +9693,7 @@
       <c r="E39" s="4">
         <v>24</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="48">
         <v>3</v>
       </c>
       <c r="H39" s="48">
@@ -8572,7 +9719,7 @@
       <c r="E40" s="4">
         <v>10</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="48">
         <v>1</v>
       </c>
       <c r="H40" s="48">
@@ -8598,7 +9745,7 @@
       <c r="E41" s="4">
         <v>7</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="48">
         <v>8</v>
       </c>
       <c r="H41" s="48">
@@ -8624,7 +9771,7 @@
       <c r="E42" s="4">
         <v>0</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="48">
         <v>50000</v>
       </c>
       <c r="H42" s="48">
@@ -8650,7 +9797,7 @@
       <c r="E43" s="4">
         <v>7</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="48">
         <v>10</v>
       </c>
       <c r="H43" s="48">
@@ -8676,7 +9823,7 @@
       <c r="E44" s="4">
         <v>0</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="48">
         <v>100000</v>
       </c>
       <c r="H44" s="48">
@@ -8702,7 +9849,7 @@
       <c r="E45" s="4">
         <v>0</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="48">
         <v>600</v>
       </c>
       <c r="H45" s="48">
@@ -8728,7 +9875,7 @@
       <c r="E46" s="4">
         <v>18</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="48">
         <v>1</v>
       </c>
       <c r="H46" s="48">
@@ -8754,7 +9901,7 @@
       <c r="E47" s="4">
         <v>10</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="48">
         <v>1</v>
       </c>
       <c r="H47" s="48">
@@ -8780,7 +9927,7 @@
       <c r="E48" s="4">
         <v>25</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="48">
         <v>1</v>
       </c>
       <c r="H48" s="48">
@@ -8806,7 +9953,7 @@
       <c r="E49" s="4">
         <v>26</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="48">
         <v>1</v>
       </c>
       <c r="H49" s="48">
@@ -8832,7 +9979,7 @@
       <c r="E50" s="4">
         <v>27</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="48">
         <v>1</v>
       </c>
       <c r="H50" s="48">
@@ -8858,7 +10005,7 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="93" t="s">
         <v>222</v>
       </c>
       <c r="G51" s="52"/>
@@ -8885,7 +10032,7 @@
       <c r="E52" s="4">
         <v>15</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="48">
         <v>8</v>
       </c>
       <c r="H52" s="48">
@@ -8911,7 +10058,7 @@
       <c r="E53" s="4">
         <v>17</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="48">
         <v>1</v>
       </c>
       <c r="H53" s="48">
@@ -8937,7 +10084,7 @@
       <c r="E54" s="4">
         <v>22</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="48">
         <v>0</v>
       </c>
       <c r="H54" s="48">
@@ -8963,7 +10110,7 @@
       <c r="E55" s="4">
         <v>22</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="48">
         <v>0</v>
       </c>
       <c r="H55" s="48">
@@ -8989,7 +10136,7 @@
       <c r="E56" s="4">
         <v>23</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="48">
         <v>1</v>
       </c>
       <c r="H56" s="48">
@@ -9015,7 +10162,7 @@
       <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="48">
         <v>2000000</v>
       </c>
       <c r="H57" s="48">
@@ -9041,7 +10188,7 @@
       <c r="E58" s="4">
         <v>0</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="48">
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -9064,7 +10211,7 @@
       <c r="E59" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="48">
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -9087,7 +10234,7 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="48">
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -9110,7 +10257,7 @@
       <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="48">
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -9133,7 +10280,7 @@
       <c r="E62" s="4">
         <v>0</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="48" t="s">
         <v>227</v>
       </c>
       <c r="H62" s="48" t="s">
@@ -9156,7 +10303,7 @@
       <c r="E63" s="4">
         <v>0</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="48">
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -9179,7 +10326,7 @@
       <c r="E64" s="4">
         <v>0</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="48">
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -9202,7 +10349,7 @@
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="48">
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -9225,7 +10372,7 @@
       <c r="E66" s="4">
         <v>0</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="48">
         <v>0</v>
       </c>
       <c r="H66" s="48">
@@ -9251,7 +10398,7 @@
       <c r="E67" s="4">
         <v>0</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="48">
         <v>0</v>
       </c>
       <c r="H67" s="48">
@@ -9277,7 +10424,7 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="94">
         <v>99999999999</v>
       </c>
       <c r="G68" s="55"/>
@@ -9301,7 +10448,7 @@
       <c r="E69" s="4">
         <v>28</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="48">
         <v>200000000</v>
       </c>
       <c r="G69" s="4">
@@ -9330,7 +10477,7 @@
       <c r="E70" s="14">
         <v>0</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="56" t="s">
         <v>233</v>
       </c>
       <c r="G70" s="14"/>
@@ -9357,7 +10504,7 @@
       <c r="E71" s="14">
         <v>0</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="56">
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
@@ -9384,7 +10531,7 @@
       <c r="E72" s="14">
         <v>0</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="56">
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
@@ -9411,7 +10558,7 @@
       <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="56">
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
@@ -9438,7 +10585,7 @@
       <c r="E74" s="14">
         <v>0</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="56">
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
@@ -9465,7 +10612,7 @@
       <c r="E75" s="14">
         <v>0</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="56">
         <v>10</v>
       </c>
       <c r="G75" s="14"/>
@@ -9488,7 +10635,7 @@
       <c r="E76" s="14">
         <v>0</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="56">
         <v>10</v>
       </c>
       <c r="G76" s="14"/>
@@ -9511,7 +10658,7 @@
       <c r="E77" s="14">
         <v>29</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="56">
         <v>1000000000</v>
       </c>
       <c r="G77" s="14">
@@ -9540,7 +10687,7 @@
       <c r="E78" s="14">
         <v>30</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="56">
         <v>4000000000</v>
       </c>
       <c r="G78" s="14">
@@ -9565,7 +10712,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8">
+      <c r="F79" s="58">
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
@@ -9588,7 +10735,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="8"/>
-      <c r="F80" s="8">
+      <c r="F80" s="58">
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
@@ -9611,7 +10758,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="8">
+      <c r="F81" s="58">
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
@@ -9638,7 +10785,7 @@
       <c r="E82" s="32">
         <v>0</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="59">
         <v>1000000000</v>
       </c>
       <c r="G82" s="32">
@@ -9665,7 +10812,7 @@
         <v>82</v>
       </c>
       <c r="E83" s="20"/>
-      <c r="F83" s="20">
+      <c r="F83" s="60">
         <v>2000000000</v>
       </c>
       <c r="G83" s="20">
@@ -9692,7 +10839,7 @@
         <v>83</v>
       </c>
       <c r="E84" s="20"/>
-      <c r="F84" s="20">
+      <c r="F84" s="60">
         <v>10000000000</v>
       </c>
       <c r="G84" s="20">
@@ -9719,7 +10866,7 @@
         <v>84</v>
       </c>
       <c r="E85" s="20"/>
-      <c r="F85" s="20">
+      <c r="F85" s="60">
         <v>40000000000</v>
       </c>
       <c r="G85" s="20">
@@ -9745,7 +10892,7 @@
       <c r="E86" s="4">
         <v>0</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="37" t="s">
         <v>240</v>
       </c>
       <c r="H86" s="37" t="s">
@@ -9774,7 +10921,7 @@
       <c r="E87" s="4">
         <v>0</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="48">
         <v>99999</v>
       </c>
       <c r="I87" s="4" t="s">
@@ -9797,7 +10944,7 @@
       <c r="E88" s="4">
         <v>0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="48">
         <v>99999</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -9820,7 +10967,7 @@
       <c r="E89" s="4">
         <v>0</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="48">
         <v>99999</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -9843,7 +10990,7 @@
       <c r="E90" s="4">
         <v>0</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="48">
         <v>99999</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -9862,7 +11009,7 @@
         <v>90</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="8">
+      <c r="F91" s="58">
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
@@ -9885,7 +11032,7 @@
         <v>91</v>
       </c>
       <c r="E92" s="8"/>
-      <c r="F92" s="8">
+      <c r="F92" s="58">
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
@@ -9908,7 +11055,7 @@
         <v>92</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="8">
+      <c r="F93" s="58">
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
@@ -9929,7 +11076,7 @@
       <c r="D94" s="4">
         <v>93</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="37" t="s">
         <v>242</v>
       </c>
       <c r="H94" s="37" t="s">
@@ -9952,7 +11099,7 @@
       <c r="D95" s="4">
         <v>94</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="37" t="s">
         <v>244</v>
       </c>
       <c r="H95" s="37" t="s">
@@ -9972,7 +11119,7 @@
       <c r="D96" s="4">
         <v>95</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="48">
         <v>30000</v>
       </c>
       <c r="H96" s="48">
@@ -9992,7 +11139,7 @@
       <c r="C97" s="62"/>
       <c r="D97" s="62"/>
       <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
+      <c r="F97" s="64" t="s">
         <v>246</v>
       </c>
       <c r="G97" s="62"/>
@@ -10034,7 +11181,7 @@
       <c r="D99" s="4">
         <v>97</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="48">
         <v>600</v>
       </c>
       <c r="H99" s="37" t="s">
@@ -10054,7 +11201,7 @@
       <c r="D100" s="4">
         <v>98</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="37" t="s">
         <v>251</v>
       </c>
       <c r="H100" s="37" t="s">
@@ -10074,7 +11221,7 @@
       <c r="D101" s="4">
         <v>99</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="37" t="s">
         <v>253</v>
       </c>
       <c r="H101" s="37" t="s">
@@ -10159,7 +11306,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="20">
+      <c r="F105" s="60">
         <v>1</v>
       </c>
       <c r="G105" s="20"/>
@@ -10185,7 +11332,7 @@
         <v>100</v>
       </c>
       <c r="E106" s="20"/>
-      <c r="F106" s="20">
+      <c r="F106" s="60">
         <v>1</v>
       </c>
       <c r="G106" s="20"/>
@@ -10211,7 +11358,7 @@
         <v>101</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="20">
+      <c r="F107" s="60">
         <v>50000</v>
       </c>
       <c r="G107" s="20"/>
@@ -10237,7 +11384,7 @@
         <v>102</v>
       </c>
       <c r="E108" s="20"/>
-      <c r="F108" s="20">
+      <c r="F108" s="60">
         <v>1</v>
       </c>
       <c r="G108" s="20"/>
@@ -10263,7 +11410,7 @@
         <v>103</v>
       </c>
       <c r="E109" s="20"/>
-      <c r="F109" s="20">
+      <c r="F109" s="60">
         <v>10</v>
       </c>
       <c r="G109" s="20"/>
@@ -10289,7 +11436,7 @@
         <v>104</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="20">
+      <c r="F110" s="60">
         <v>10</v>
       </c>
       <c r="G110" s="20"/>
@@ -10315,7 +11462,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="20"/>
-      <c r="F111" s="20">
+      <c r="F111" s="60">
         <v>600</v>
       </c>
       <c r="G111" s="20"/>
@@ -10341,7 +11488,7 @@
         <v>106</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="20">
+      <c r="F112" s="60">
         <v>1</v>
       </c>
       <c r="G112" s="20"/>
@@ -10367,7 +11514,7 @@
         <v>107</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="20">
+      <c r="F113" s="60">
         <v>3</v>
       </c>
       <c r="G113" s="20"/>
@@ -10393,7 +11540,7 @@
         <v>101</v>
       </c>
       <c r="E114" s="20"/>
-      <c r="F114" s="20">
+      <c r="F114" s="60">
         <v>1000000</v>
       </c>
       <c r="G114" s="20"/>
@@ -10419,7 +11566,7 @@
         <v>104</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="20">
+      <c r="F115" s="60">
         <v>50</v>
       </c>
       <c r="G115" s="20"/>
@@ -10445,7 +11592,7 @@
         <v>103</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="20">
+      <c r="F116" s="60">
         <v>100</v>
       </c>
       <c r="G116" s="20"/>
@@ -10471,7 +11618,7 @@
         <v>102</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="20">
+      <c r="F117" s="60">
         <v>20</v>
       </c>
       <c r="G117" s="20"/>
@@ -10497,7 +11644,7 @@
         <v>110</v>
       </c>
       <c r="E118" s="20"/>
-      <c r="F118" s="20">
+      <c r="F118" s="60">
         <v>5400</v>
       </c>
       <c r="G118" s="20"/>
@@ -10523,7 +11670,7 @@
         <v>114</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="20">
+      <c r="F119" s="60">
         <v>4800</v>
       </c>
       <c r="G119" s="20"/>
@@ -10537,119 +11684,324 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="85" customFormat="1">
-      <c r="A120" s="84">
+    <row r="120" spans="1:10" s="80" customFormat="1">
+      <c r="A120" s="79">
         <v>119</v>
       </c>
-      <c r="B120" s="82">
+      <c r="B120" s="77">
         <v>119</v>
       </c>
-      <c r="C120" s="84"/>
-      <c r="D120" s="84">
+      <c r="C120" s="79"/>
+      <c r="D120" s="79">
         <v>115</v>
       </c>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84">
+      <c r="E120" s="79"/>
+      <c r="F120" s="95">
         <v>5</v>
       </c>
-      <c r="G120" s="84"/>
-      <c r="H120" s="87" t="s">
+      <c r="G120" s="79"/>
+      <c r="H120" s="82" t="s">
         <v>508</v>
       </c>
-      <c r="I120" s="86" t="s">
+      <c r="I120" s="81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="85" customFormat="1">
-      <c r="A121" s="84">
+    <row r="121" spans="1:10" s="80" customFormat="1">
+      <c r="A121" s="79">
         <v>120</v>
       </c>
-      <c r="B121" s="82">
+      <c r="B121" s="77">
         <v>120</v>
       </c>
-      <c r="C121" s="84"/>
-      <c r="D121" s="84">
+      <c r="C121" s="79"/>
+      <c r="D121" s="79">
         <v>116</v>
       </c>
-      <c r="E121" s="84"/>
-      <c r="F121" s="84">
-        <v>1</v>
-      </c>
-      <c r="G121" s="84"/>
-      <c r="H121" s="87" t="s">
+      <c r="E121" s="79"/>
+      <c r="F121" s="95">
+        <v>1</v>
+      </c>
+      <c r="G121" s="79"/>
+      <c r="H121" s="82" t="s">
         <v>509</v>
       </c>
-      <c r="I121" s="86" t="s">
+      <c r="I121" s="81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="85" customFormat="1">
-      <c r="A122" s="84">
+    <row r="122" spans="1:10" s="80" customFormat="1">
+      <c r="A122" s="79">
         <v>121</v>
       </c>
-      <c r="B122" s="82">
+      <c r="B122" s="77">
         <v>121</v>
       </c>
-      <c r="C122" s="84"/>
-      <c r="D122" s="84">
+      <c r="C122" s="79"/>
+      <c r="D122" s="79">
         <v>117</v>
       </c>
-      <c r="E122" s="84"/>
-      <c r="F122" s="84">
+      <c r="E122" s="79"/>
+      <c r="F122" s="95">
         <v>30000</v>
       </c>
-      <c r="G122" s="84"/>
-      <c r="H122" s="87" t="s">
+      <c r="G122" s="79"/>
+      <c r="H122" s="82" t="s">
         <v>510</v>
       </c>
-      <c r="I122" s="86" t="s">
+      <c r="I122" s="81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="85" customFormat="1">
-      <c r="A123" s="84">
+    <row r="123" spans="1:10" s="80" customFormat="1">
+      <c r="A123" s="79">
         <v>122</v>
       </c>
-      <c r="B123" s="82">
+      <c r="B123" s="77">
         <v>122</v>
       </c>
-      <c r="C123" s="84"/>
-      <c r="D123" s="84">
+      <c r="C123" s="79"/>
+      <c r="D123" s="79">
         <v>117</v>
       </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="84">
+      <c r="E123" s="79"/>
+      <c r="F123" s="95">
         <v>50000</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="87" t="s">
+      <c r="G123" s="79"/>
+      <c r="H123" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="I123" s="86" t="s">
+      <c r="I123" s="81" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="85" customFormat="1">
-      <c r="A124" s="84">
+    <row r="124" spans="1:10" s="80" customFormat="1">
+      <c r="A124" s="79">
         <v>123</v>
       </c>
-      <c r="B124" s="82">
+      <c r="B124" s="77">
         <v>123</v>
       </c>
-      <c r="C124" s="84"/>
-      <c r="D124" s="86">
+      <c r="C124" s="79"/>
+      <c r="D124" s="81">
         <v>118</v>
       </c>
-      <c r="E124" s="84"/>
-      <c r="F124" s="84">
+      <c r="E124" s="79"/>
+      <c r="F124" s="95">
         <v>500</v>
       </c>
-      <c r="G124" s="84"/>
-      <c r="H124" s="87" t="s">
+      <c r="G124" s="79"/>
+      <c r="H124" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="I124" s="86" t="s">
+      <c r="I124" s="81" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="90" customFormat="1">
+      <c r="A125" s="87">
+        <v>124</v>
+      </c>
+      <c r="B125" s="87">
+        <v>124</v>
+      </c>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89">
+        <v>119</v>
+      </c>
+      <c r="E125" s="89"/>
+      <c r="F125" s="96" t="s">
+        <v>538</v>
+      </c>
+      <c r="G125" s="89"/>
+      <c r="H125" s="96" t="s">
+        <v>567</v>
+      </c>
+      <c r="I125" s="91" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="90" customFormat="1">
+      <c r="A126" s="87">
+        <v>125</v>
+      </c>
+      <c r="B126" s="87">
+        <v>125</v>
+      </c>
+      <c r="C126" s="89"/>
+      <c r="D126" s="89">
+        <v>120</v>
+      </c>
+      <c r="E126" s="89"/>
+      <c r="F126" s="96" t="s">
+        <v>539</v>
+      </c>
+      <c r="G126" s="89"/>
+      <c r="H126" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="I126" s="91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="90" customFormat="1">
+      <c r="A127" s="87">
+        <v>126</v>
+      </c>
+      <c r="B127" s="87">
+        <v>126</v>
+      </c>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89">
+        <v>121</v>
+      </c>
+      <c r="E127" s="89"/>
+      <c r="F127" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="G127" s="89"/>
+      <c r="H127" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="I127" s="91" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="90" customFormat="1">
+      <c r="A128" s="87">
+        <v>127</v>
+      </c>
+      <c r="B128" s="87">
+        <v>127</v>
+      </c>
+      <c r="C128" s="89"/>
+      <c r="D128" s="89">
+        <v>122</v>
+      </c>
+      <c r="E128" s="89"/>
+      <c r="F128" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="G128" s="89"/>
+      <c r="H128" s="96" t="s">
+        <v>583</v>
+      </c>
+      <c r="I128" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="90" customFormat="1">
+      <c r="A129" s="87">
+        <v>128</v>
+      </c>
+      <c r="B129" s="87">
+        <v>128</v>
+      </c>
+      <c r="C129" s="89"/>
+      <c r="D129" s="89">
+        <v>119</v>
+      </c>
+      <c r="E129" s="89"/>
+      <c r="F129" s="96" t="s">
+        <v>540</v>
+      </c>
+      <c r="G129" s="89"/>
+      <c r="H129" s="96" t="s">
+        <v>589</v>
+      </c>
+      <c r="I129" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="90" customFormat="1">
+      <c r="A130" s="87">
+        <v>129</v>
+      </c>
+      <c r="B130" s="87">
+        <v>129</v>
+      </c>
+      <c r="C130" s="89"/>
+      <c r="D130" s="89">
+        <v>123</v>
+      </c>
+      <c r="E130" s="89"/>
+      <c r="F130" s="96" t="s">
+        <v>542</v>
+      </c>
+      <c r="G130" s="89"/>
+      <c r="H130" s="96" t="s">
+        <v>591</v>
+      </c>
+      <c r="I130" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="90" customFormat="1">
+      <c r="A131" s="87">
+        <v>130</v>
+      </c>
+      <c r="B131" s="87">
+        <v>130</v>
+      </c>
+      <c r="C131" s="89"/>
+      <c r="D131" s="89">
+        <v>124</v>
+      </c>
+      <c r="E131" s="89"/>
+      <c r="F131" s="96" t="s">
+        <v>543</v>
+      </c>
+      <c r="G131" s="89"/>
+      <c r="H131" s="96" t="s">
+        <v>594</v>
+      </c>
+      <c r="I131" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="90" customFormat="1">
+      <c r="A132" s="87">
+        <v>131</v>
+      </c>
+      <c r="B132" s="87">
+        <v>131</v>
+      </c>
+      <c r="C132" s="89"/>
+      <c r="D132" s="89">
+        <v>125</v>
+      </c>
+      <c r="E132" s="89"/>
+      <c r="F132" s="96" t="s">
+        <v>544</v>
+      </c>
+      <c r="G132" s="89"/>
+      <c r="H132" s="96" t="s">
+        <v>597</v>
+      </c>
+      <c r="I132" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="90" customFormat="1">
+      <c r="A133" s="87">
+        <v>132</v>
+      </c>
+      <c r="B133" s="87">
+        <v>132</v>
+      </c>
+      <c r="C133" s="89"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="G133" s="89"/>
+      <c r="H133" s="96" t="s">
+        <v>600</v>
+      </c>
+      <c r="I133" s="91" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -10662,11 +12014,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12650,7 +14002,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="79" t="s">
+      <c r="F120" s="84" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12667,7 +14019,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="79"/>
+      <c r="F121" s="84"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -12682,7 +14034,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="79"/>
+      <c r="F122" s="84"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -12697,7 +14049,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="79"/>
+      <c r="F123" s="84"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -12712,7 +14064,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="79"/>
+      <c r="F124" s="84"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -12727,7 +14079,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="79"/>
+      <c r="F125" s="84"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -12742,7 +14094,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="79"/>
+      <c r="F126" s="84"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -12757,7 +14109,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="79"/>
+      <c r="F127" s="84"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -12772,7 +14124,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="79"/>
+      <c r="F128" s="84"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -12787,7 +14139,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="79"/>
+      <c r="F129" s="84"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -12802,7 +14154,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="79"/>
+      <c r="F130" s="84"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -12817,7 +14169,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="79"/>
+      <c r="F131" s="84"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -12832,7 +14184,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="79"/>
+      <c r="F132" s="84"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -12847,7 +14199,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="79"/>
+      <c r="F133" s="84"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -12862,7 +14214,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="79"/>
+      <c r="F134" s="84"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -12877,7 +14229,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="79"/>
+      <c r="F135" s="84"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -12942,8 +14294,8 @@
       <c r="B140" s="20">
         <v>106</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>299</v>
+      <c r="C140" s="97" t="s">
+        <v>558</v>
       </c>
       <c r="D140" s="18">
         <v>0</v>
@@ -13068,7 +14420,7 @@
       <c r="B149" s="4">
         <v>115</v>
       </c>
-      <c r="C149" s="88" t="s">
+      <c r="C149" s="83" t="s">
         <v>514</v>
       </c>
       <c r="D149" s="18">
@@ -13082,8 +14434,8 @@
       <c r="B150" s="4">
         <v>116</v>
       </c>
-      <c r="C150" s="88" t="s">
-        <v>516</v>
+      <c r="C150" s="83" t="s">
+        <v>545</v>
       </c>
       <c r="D150" s="18">
         <v>44</v>
@@ -13096,8 +14448,8 @@
       <c r="B151" s="4">
         <v>117</v>
       </c>
-      <c r="C151" s="88" t="s">
-        <v>519</v>
+      <c r="C151" s="83" t="s">
+        <v>515</v>
       </c>
       <c r="D151" s="18">
         <v>0</v>
@@ -13110,11 +14462,109 @@
       <c r="B152" s="4">
         <v>118</v>
       </c>
-      <c r="C152" s="88" t="s">
-        <v>520</v>
+      <c r="C152" s="83" t="s">
+        <v>516</v>
       </c>
       <c r="D152" s="18">
         <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="76">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <v>119</v>
+      </c>
+      <c r="C153" s="83" t="s">
+        <v>554</v>
+      </c>
+      <c r="D153" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="76">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <v>120</v>
+      </c>
+      <c r="C154" s="83" t="s">
+        <v>546</v>
+      </c>
+      <c r="D154" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="76">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <v>121</v>
+      </c>
+      <c r="C155" s="83" t="s">
+        <v>546</v>
+      </c>
+      <c r="D155" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="76">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <v>122</v>
+      </c>
+      <c r="C156" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="D156" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="76">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <v>123</v>
+      </c>
+      <c r="C157" s="83" t="s">
+        <v>554</v>
+      </c>
+      <c r="D157" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="76">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4">
+        <v>124</v>
+      </c>
+      <c r="C158" s="83" t="s">
+        <v>557</v>
+      </c>
+      <c r="D158" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="76">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4">
+        <v>125</v>
+      </c>
+      <c r="C159" s="83" t="s">
+        <v>559</v>
+      </c>
+      <c r="D159" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13130,11 +14580,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14455,8 +15905,8 @@
       <c r="B77" s="4">
         <v>43</v>
       </c>
-      <c r="C77" s="88" t="s">
-        <v>515</v>
+      <c r="C77" s="83" t="s">
+        <v>549</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -14472,11 +15922,11 @@
       <c r="B78" s="4">
         <v>44</v>
       </c>
-      <c r="C78" s="88" t="s">
-        <v>517</v>
-      </c>
-      <c r="D78" s="88" t="s">
-        <v>518</v>
+      <c r="C78" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>547</v>
       </c>
       <c r="E78" s="4">
         <v>2</v>
@@ -14489,13 +15939,64 @@
       <c r="B79" s="4">
         <v>45</v>
       </c>
-      <c r="C79" s="88" t="s">
-        <v>521</v>
+      <c r="C79" s="83" t="s">
+        <v>517</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="12">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>46</v>
+      </c>
+      <c r="C80" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="D80" s="83" t="s">
+        <v>548</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>47</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81" s="83" t="s">
+        <v>552</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="12">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>48</v>
+      </c>
+      <c r="C82" s="83" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" s="83" t="s">
+        <v>556</v>
+      </c>
+      <c r="E82" s="4">
         <v>2</v>
       </c>
     </row>
@@ -14508,11 +16009,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G284" sqref="G284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18215,13 +19716,1390 @@
       <c r="B207" s="20">
         <v>189</v>
       </c>
-      <c r="C207" s="20" t="s">
-        <v>369</v>
+      <c r="C207" s="97" t="s">
+        <v>561</v>
       </c>
       <c r="D207" s="20">
         <v>400</v>
       </c>
       <c r="E207" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="12">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4">
+        <v>190</v>
+      </c>
+      <c r="C208" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D208" s="4">
+        <v>20</v>
+      </c>
+      <c r="E208" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="12">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4">
+        <v>191</v>
+      </c>
+      <c r="C209" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D209" s="4">
+        <v>5</v>
+      </c>
+      <c r="E209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="12">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4">
+        <v>192</v>
+      </c>
+      <c r="C210" s="83" t="s">
+        <v>569</v>
+      </c>
+      <c r="D210" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E210" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="12">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4">
+        <v>193</v>
+      </c>
+      <c r="C211" s="83" t="s">
+        <v>569</v>
+      </c>
+      <c r="D211" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E211" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="12">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4">
+        <v>194</v>
+      </c>
+      <c r="C212" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="D212" s="4">
+        <v>10</v>
+      </c>
+      <c r="E212" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="87">
+        <v>212</v>
+      </c>
+      <c r="B213" s="89">
+        <v>195</v>
+      </c>
+      <c r="C213" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D213" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="E213" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="87">
+        <v>213</v>
+      </c>
+      <c r="B214" s="89">
+        <v>195</v>
+      </c>
+      <c r="C214" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D214" s="89">
+        <v>5</v>
+      </c>
+      <c r="E214" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="87">
+        <v>214</v>
+      </c>
+      <c r="B215" s="89">
+        <v>196</v>
+      </c>
+      <c r="C215" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D215" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E215" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="87">
+        <v>215</v>
+      </c>
+      <c r="B216" s="89">
+        <v>196</v>
+      </c>
+      <c r="C216" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D216" s="89">
+        <v>5</v>
+      </c>
+      <c r="E216" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="87">
+        <v>216</v>
+      </c>
+      <c r="B217" s="89">
+        <v>197</v>
+      </c>
+      <c r="C217" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D217" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E217" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="87">
+        <v>217</v>
+      </c>
+      <c r="B218" s="89">
+        <v>197</v>
+      </c>
+      <c r="C218" s="91" t="s">
+        <v>571</v>
+      </c>
+      <c r="D218" s="89">
+        <v>5</v>
+      </c>
+      <c r="E218" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="87">
+        <v>218</v>
+      </c>
+      <c r="B219" s="89">
+        <v>198</v>
+      </c>
+      <c r="C219" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D219" s="96" t="s">
+        <v>564</v>
+      </c>
+      <c r="E219" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="87">
+        <v>219</v>
+      </c>
+      <c r="B220" s="89">
+        <v>198</v>
+      </c>
+      <c r="C220" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D220" s="89">
+        <v>5</v>
+      </c>
+      <c r="E220" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="87">
+        <v>220</v>
+      </c>
+      <c r="B221" s="89">
+        <v>199</v>
+      </c>
+      <c r="C221" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D221" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="E221" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="87">
+        <v>221</v>
+      </c>
+      <c r="B222" s="89">
+        <v>199</v>
+      </c>
+      <c r="C222" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D222" s="89">
+        <v>10</v>
+      </c>
+      <c r="E222" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="87">
+        <v>222</v>
+      </c>
+      <c r="B223" s="89">
+        <v>200</v>
+      </c>
+      <c r="C223" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D223" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E223" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="87">
+        <v>223</v>
+      </c>
+      <c r="B224" s="89">
+        <v>200</v>
+      </c>
+      <c r="C224" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="D224" s="89">
+        <v>5</v>
+      </c>
+      <c r="E224" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="87">
+        <v>224</v>
+      </c>
+      <c r="B225" s="89">
+        <v>201</v>
+      </c>
+      <c r="C225" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D225" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="E225" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="87">
+        <v>225</v>
+      </c>
+      <c r="B226" s="89">
+        <v>201</v>
+      </c>
+      <c r="C226" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D226" s="89">
+        <v>5</v>
+      </c>
+      <c r="E226" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="87">
+        <v>226</v>
+      </c>
+      <c r="B227" s="89">
+        <v>202</v>
+      </c>
+      <c r="C227" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D227" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="E227" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="87">
+        <v>227</v>
+      </c>
+      <c r="B228" s="89">
+        <v>202</v>
+      </c>
+      <c r="C228" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D228" s="89">
+        <v>5</v>
+      </c>
+      <c r="E228" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="87">
+        <v>228</v>
+      </c>
+      <c r="B229" s="89">
+        <v>203</v>
+      </c>
+      <c r="C229" s="91" t="s">
+        <v>569</v>
+      </c>
+      <c r="D229" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="E229" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="87">
+        <v>229</v>
+      </c>
+      <c r="B230" s="89">
+        <v>203</v>
+      </c>
+      <c r="C230" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="D230" s="89">
+        <v>10</v>
+      </c>
+      <c r="E230" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="87">
+        <v>230</v>
+      </c>
+      <c r="B231" s="89">
+        <v>204</v>
+      </c>
+      <c r="C231" s="91" t="s">
+        <v>570</v>
+      </c>
+      <c r="D231" s="89">
+        <v>8000</v>
+      </c>
+      <c r="E231" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="87">
+        <v>231</v>
+      </c>
+      <c r="B232" s="89">
+        <v>204</v>
+      </c>
+      <c r="C232" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="D232" s="89">
+        <v>15</v>
+      </c>
+      <c r="E232" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="87">
+        <v>232</v>
+      </c>
+      <c r="B233" s="89">
+        <v>205</v>
+      </c>
+      <c r="C233" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D233" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="E233" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="87">
+        <v>233</v>
+      </c>
+      <c r="B234" s="89">
+        <v>205</v>
+      </c>
+      <c r="C234" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="D234" s="89">
+        <v>10</v>
+      </c>
+      <c r="E234" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="87">
+        <v>234</v>
+      </c>
+      <c r="B235" s="89">
+        <v>206</v>
+      </c>
+      <c r="C235" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D235" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="E235" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="87">
+        <v>235</v>
+      </c>
+      <c r="B236" s="89">
+        <v>206</v>
+      </c>
+      <c r="C236" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D236" s="89">
+        <v>10</v>
+      </c>
+      <c r="E236" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="87">
+        <v>236</v>
+      </c>
+      <c r="B237" s="89">
+        <v>207</v>
+      </c>
+      <c r="C237" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D237" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="E237" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="87">
+        <v>237</v>
+      </c>
+      <c r="B238" s="89">
+        <v>207</v>
+      </c>
+      <c r="C238" s="91" t="s">
+        <v>582</v>
+      </c>
+      <c r="D238" s="89">
+        <v>10</v>
+      </c>
+      <c r="E238" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="87">
+        <v>238</v>
+      </c>
+      <c r="B239" s="89">
+        <v>208</v>
+      </c>
+      <c r="C239" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D239" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E239" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="87">
+        <v>239</v>
+      </c>
+      <c r="B240" s="89">
+        <v>208</v>
+      </c>
+      <c r="C240" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D240" s="89">
+        <v>20</v>
+      </c>
+      <c r="E240" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="87">
+        <v>240</v>
+      </c>
+      <c r="B241" s="89">
+        <v>209</v>
+      </c>
+      <c r="C241" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D241" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E241" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="87">
+        <v>241</v>
+      </c>
+      <c r="B242" s="89">
+        <v>209</v>
+      </c>
+      <c r="C242" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="D242" s="89">
+        <v>30</v>
+      </c>
+      <c r="E242" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="87">
+        <v>242</v>
+      </c>
+      <c r="B243" s="89">
+        <v>210</v>
+      </c>
+      <c r="C243" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D243" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E243" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="87">
+        <v>243</v>
+      </c>
+      <c r="B244" s="89">
+        <v>210</v>
+      </c>
+      <c r="C244" s="91" t="s">
+        <v>588</v>
+      </c>
+      <c r="D244" s="89">
+        <v>15</v>
+      </c>
+      <c r="E244" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="87">
+        <v>244</v>
+      </c>
+      <c r="B245" s="89">
+        <v>211</v>
+      </c>
+      <c r="C245" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="E245" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="87">
+        <v>245</v>
+      </c>
+      <c r="B246" s="89">
+        <v>211</v>
+      </c>
+      <c r="C246" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D246" s="89">
+        <v>15</v>
+      </c>
+      <c r="E246" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="87">
+        <v>246</v>
+      </c>
+      <c r="B247" s="89">
+        <v>212</v>
+      </c>
+      <c r="C247" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D247" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="E247" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="87">
+        <v>247</v>
+      </c>
+      <c r="B248" s="89">
+        <v>212</v>
+      </c>
+      <c r="C248" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D248" s="89">
+        <v>15</v>
+      </c>
+      <c r="E248" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="87">
+        <v>248</v>
+      </c>
+      <c r="B249" s="89">
+        <v>213</v>
+      </c>
+      <c r="C249" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249" s="99" t="s">
+        <v>586</v>
+      </c>
+      <c r="E249" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="87">
+        <v>249</v>
+      </c>
+      <c r="B250" s="89">
+        <v>213</v>
+      </c>
+      <c r="C250" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="D250" s="89">
+        <v>15</v>
+      </c>
+      <c r="E250" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="87">
+        <v>250</v>
+      </c>
+      <c r="B251" s="89">
+        <v>214</v>
+      </c>
+      <c r="C251" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D251" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E251" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="87">
+        <v>251</v>
+      </c>
+      <c r="B252" s="89">
+        <v>214</v>
+      </c>
+      <c r="C252" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D252" s="89">
+        <v>30</v>
+      </c>
+      <c r="E252" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="87">
+        <v>252</v>
+      </c>
+      <c r="B253" s="89">
+        <v>215</v>
+      </c>
+      <c r="C253" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D253" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="E253" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="87">
+        <v>253</v>
+      </c>
+      <c r="B254" s="89">
+        <v>215</v>
+      </c>
+      <c r="C254" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D254" s="89">
+        <v>15</v>
+      </c>
+      <c r="E254" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="87">
+        <v>254</v>
+      </c>
+      <c r="B255" s="89">
+        <v>216</v>
+      </c>
+      <c r="C255" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D255" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="E255" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="87">
+        <v>255</v>
+      </c>
+      <c r="B256" s="89">
+        <v>216</v>
+      </c>
+      <c r="C256" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D256" s="89">
+        <v>15</v>
+      </c>
+      <c r="E256" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="87">
+        <v>256</v>
+      </c>
+      <c r="B257" s="89">
+        <v>217</v>
+      </c>
+      <c r="C257" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D257" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="E257" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="87">
+        <v>257</v>
+      </c>
+      <c r="B258" s="89">
+        <v>217</v>
+      </c>
+      <c r="C258" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D258" s="89">
+        <v>15</v>
+      </c>
+      <c r="E258" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="87">
+        <v>258</v>
+      </c>
+      <c r="B259" s="89">
+        <v>218</v>
+      </c>
+      <c r="C259" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D259" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E259" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="87">
+        <v>259</v>
+      </c>
+      <c r="B260" s="89">
+        <v>218</v>
+      </c>
+      <c r="C260" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D260" s="89">
+        <v>15</v>
+      </c>
+      <c r="E260" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="87">
+        <v>260</v>
+      </c>
+      <c r="B261" s="89">
+        <v>219</v>
+      </c>
+      <c r="C261" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D261" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="E261" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="87">
+        <v>261</v>
+      </c>
+      <c r="B262" s="89">
+        <v>219</v>
+      </c>
+      <c r="C262" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="D262" s="89">
+        <v>30</v>
+      </c>
+      <c r="E262" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="87">
+        <v>262</v>
+      </c>
+      <c r="B263" s="89">
+        <v>220</v>
+      </c>
+      <c r="C263" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D263" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="E263" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="87">
+        <v>263</v>
+      </c>
+      <c r="B264" s="89">
+        <v>220</v>
+      </c>
+      <c r="C264" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="D264" s="89">
+        <v>15</v>
+      </c>
+      <c r="E264" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="87">
+        <v>264</v>
+      </c>
+      <c r="B265" s="89">
+        <v>221</v>
+      </c>
+      <c r="C265" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D265" s="99" t="s">
+        <v>576</v>
+      </c>
+      <c r="E265" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="87">
+        <v>265</v>
+      </c>
+      <c r="B266" s="89">
+        <v>221</v>
+      </c>
+      <c r="C266" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D266" s="89">
+        <v>15</v>
+      </c>
+      <c r="E266" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="87">
+        <v>266</v>
+      </c>
+      <c r="B267" s="89">
+        <v>222</v>
+      </c>
+      <c r="C267" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D267" s="99" t="s">
+        <v>592</v>
+      </c>
+      <c r="E267" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="87">
+        <v>267</v>
+      </c>
+      <c r="B268" s="89">
+        <v>222</v>
+      </c>
+      <c r="C268" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D268" s="89">
+        <v>15</v>
+      </c>
+      <c r="E268" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="87">
+        <v>268</v>
+      </c>
+      <c r="B269" s="89">
+        <v>223</v>
+      </c>
+      <c r="C269" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D269" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E269" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="87">
+        <v>269</v>
+      </c>
+      <c r="B270" s="89">
+        <v>223</v>
+      </c>
+      <c r="C270" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D270" s="89">
+        <v>20</v>
+      </c>
+      <c r="E270" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="87">
+        <v>270</v>
+      </c>
+      <c r="B271" s="89">
+        <v>224</v>
+      </c>
+      <c r="C271" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D271" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="E271" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="87">
+        <v>271</v>
+      </c>
+      <c r="B272" s="89">
+        <v>224</v>
+      </c>
+      <c r="C272" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D272" s="89">
+        <v>30</v>
+      </c>
+      <c r="E272" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="87">
+        <v>272</v>
+      </c>
+      <c r="B273" s="89">
+        <v>225</v>
+      </c>
+      <c r="C273" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D273" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E273" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="87">
+        <v>273</v>
+      </c>
+      <c r="B274" s="89">
+        <v>225</v>
+      </c>
+      <c r="C274" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="D274" s="89">
+        <v>15</v>
+      </c>
+      <c r="E274" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="87">
+        <v>274</v>
+      </c>
+      <c r="B275" s="89">
+        <v>226</v>
+      </c>
+      <c r="C275" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D275" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E275" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="87">
+        <v>275</v>
+      </c>
+      <c r="B276" s="89">
+        <v>226</v>
+      </c>
+      <c r="C276" s="91" t="s">
+        <v>565</v>
+      </c>
+      <c r="D276" s="89">
+        <v>15</v>
+      </c>
+      <c r="E276" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="87">
+        <v>276</v>
+      </c>
+      <c r="B277" s="89">
+        <v>227</v>
+      </c>
+      <c r="C277" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D277" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="E277" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="87">
+        <v>277</v>
+      </c>
+      <c r="B278" s="89">
+        <v>227</v>
+      </c>
+      <c r="C278" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="D278" s="89">
+        <v>15</v>
+      </c>
+      <c r="E278" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="87">
+        <v>278</v>
+      </c>
+      <c r="B279" s="89">
+        <v>228</v>
+      </c>
+      <c r="C279" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D279" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="E279" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="87">
+        <v>279</v>
+      </c>
+      <c r="B280" s="89">
+        <v>228</v>
+      </c>
+      <c r="C280" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="D280" s="89">
+        <v>20</v>
+      </c>
+      <c r="E280" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="87">
+        <v>280</v>
+      </c>
+      <c r="B281" s="89">
+        <v>229</v>
+      </c>
+      <c r="C281" s="98" t="s">
+        <v>316</v>
+      </c>
+      <c r="D281" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="E281" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="87">
+        <v>281</v>
+      </c>
+      <c r="B282" s="89">
+        <v>229</v>
+      </c>
+      <c r="C282" s="91" t="s">
+        <v>595</v>
+      </c>
+      <c r="D282" s="89">
+        <v>30</v>
+      </c>
+      <c r="E282" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="87">
+        <v>282</v>
+      </c>
+      <c r="B283" s="89">
+        <v>230</v>
+      </c>
+      <c r="C283" s="91" t="s">
+        <v>596</v>
+      </c>
+      <c r="D283" s="89">
+        <v>259200</v>
+      </c>
+      <c r="E283" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="87">
+        <v>283</v>
+      </c>
+      <c r="B284" s="89">
+        <v>231</v>
+      </c>
+      <c r="C284" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="D284" s="89">
+        <v>80000</v>
+      </c>
+      <c r="E284" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="87">
+        <v>284</v>
+      </c>
+      <c r="B285" s="89">
+        <v>232</v>
+      </c>
+      <c r="C285" s="91" t="s">
+        <v>568</v>
+      </c>
+      <c r="D285" s="89">
+        <v>100</v>
+      </c>
+      <c r="E285" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="87">
+        <v>285</v>
+      </c>
+      <c r="B286" s="89">
+        <v>233</v>
+      </c>
+      <c r="C286" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="D286" s="89">
+        <v>500</v>
+      </c>
+      <c r="E286" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="87">
+        <v>286</v>
+      </c>
+      <c r="B287" s="89">
+        <v>234</v>
+      </c>
+      <c r="C287" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="D287" s="89">
+        <v>1500</v>
+      </c>
+      <c r="E287" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="87">
+        <v>287</v>
+      </c>
+      <c r="B288" s="89">
+        <v>235</v>
+      </c>
+      <c r="C288" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="D288" s="89">
+        <v>3000</v>
+      </c>
+      <c r="E288" s="89">
         <v>1</v>
       </c>
     </row>
@@ -18371,10 +21249,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="85">
         <v>1</v>
       </c>
     </row>
@@ -18382,8 +21260,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -18433,10 +21311,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="85" t="s">
         <v>423</v>
       </c>
     </row>
@@ -18444,17 +21322,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="85">
         <v>1</v>
       </c>
     </row>
@@ -18462,8 +21340,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -18568,10 +21446,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="86">
         <v>1</v>
       </c>
     </row>
@@ -18579,8 +21457,8 @@
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -51586,10 +54464,10 @@
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="85" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="85" t="s">
         <v>423</v>
       </c>
     </row>
@@ -51597,8 +54475,8 @@
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -51701,16 +54579,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_9.21/task_server.xlsx
+++ b/config_9.21/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2277,47 +2277,6 @@
   </si>
   <si>
     <t>fish_game_id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day2）-累计使用1\3\10次锁定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day3）-累计开炮200\500\1000\3000\5000发</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>新人七天乐（day</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1）-累计捕获5\10\20\30\50条鱼</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day4）-累计捕获20\50\100\200\500条鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day5）-累计捕获1\5\10\15\20条黄金鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day6）-累计消耗1000\5000\10000\30000\50000万金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（day7）-累计充值10\100\200\500\1000元</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2750,10 +2709,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>新人七天乐（day2）-累计使用3\10次冰冻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3,7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3062,6 +3017,30 @@
       <t>30,231,232,233,234,235</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（day1）-累计捕获5-10-20-30-50条鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day2）-累计使用1-3-10次锁定</t>
+  </si>
+  <si>
+    <t>新人七天乐（day2）-累计使用3-10次冰冻</t>
+  </si>
+  <si>
+    <t>新人七天乐（day3）-累计开炮200-500-1000-3000-5000发</t>
+  </si>
+  <si>
+    <t>新人七天乐（day4）-累计捕获20-50-100-200-500条鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day5）-累计捕获1-5-10-15-20条黄金鱼</t>
+  </si>
+  <si>
+    <t>新人七天乐（day6）-累计消耗1000-5000-10000-30000-50000万金币</t>
+  </si>
+  <si>
+    <t>新人七天乐（day7）-累计充值10-100-200-500-1000元</t>
   </si>
 </sst>
 </file>
@@ -3477,13 +3456,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3519,6 +3491,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3800,9 +3779,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8305,345 +8284,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="87" customFormat="1">
-      <c r="A124" s="87">
+    <row r="124" spans="1:12" s="84" customFormat="1">
+      <c r="A124" s="84">
         <v>30024</v>
       </c>
-      <c r="B124" s="87">
-        <v>1</v>
-      </c>
-      <c r="C124" s="88" t="s">
+      <c r="B124" s="84">
+        <v>1</v>
+      </c>
+      <c r="C124" s="85" t="s">
+        <v>593</v>
+      </c>
+      <c r="D124" s="85" t="s">
         <v>520</v>
       </c>
-      <c r="D124" s="88" t="s">
+      <c r="E124" s="85" t="s">
+        <v>521</v>
+      </c>
+      <c r="F124" s="84">
+        <v>124</v>
+      </c>
+      <c r="G124" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="84">
+        <v>1</v>
+      </c>
+      <c r="I124" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J124" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K124" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L124" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="84" customFormat="1">
+      <c r="A125" s="84">
+        <v>30025</v>
+      </c>
+      <c r="B125" s="84">
+        <v>1</v>
+      </c>
+      <c r="C125" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="D125" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E125" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="F125" s="84">
+        <v>125</v>
+      </c>
+      <c r="G125" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="84">
+        <v>1</v>
+      </c>
+      <c r="I125" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J125" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K125" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L125" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="84" customFormat="1">
+      <c r="A126" s="84">
+        <v>30026</v>
+      </c>
+      <c r="B126" s="84">
+        <v>1</v>
+      </c>
+      <c r="C126" s="85" t="s">
+        <v>595</v>
+      </c>
+      <c r="D126" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E126" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="F126" s="84">
+        <v>126</v>
+      </c>
+      <c r="G126" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="84">
+        <v>1</v>
+      </c>
+      <c r="I126" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J126" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K126" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L126" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="84" customFormat="1">
+      <c r="A127" s="84">
+        <v>30027</v>
+      </c>
+      <c r="B127" s="84">
+        <v>1</v>
+      </c>
+      <c r="C127" s="85" t="s">
+        <v>596</v>
+      </c>
+      <c r="D127" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E127" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="F127" s="84">
+        <v>127</v>
+      </c>
+      <c r="G127" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="84">
+        <v>1</v>
+      </c>
+      <c r="I127" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J127" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K127" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L127" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="84" customFormat="1">
+      <c r="A128" s="84">
+        <v>30028</v>
+      </c>
+      <c r="B128" s="84">
+        <v>1</v>
+      </c>
+      <c r="C128" s="85" t="s">
+        <v>597</v>
+      </c>
+      <c r="D128" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E128" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="F128" s="84">
+        <v>128</v>
+      </c>
+      <c r="G128" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="84">
+        <v>1</v>
+      </c>
+      <c r="I128" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J128" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K128" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L128" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="84" customFormat="1">
+      <c r="A129" s="84">
+        <v>30029</v>
+      </c>
+      <c r="B129" s="84">
+        <v>1</v>
+      </c>
+      <c r="C129" s="85" t="s">
+        <v>598</v>
+      </c>
+      <c r="D129" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E129" s="85" t="s">
         <v>527</v>
       </c>
-      <c r="E124" s="88" t="s">
+      <c r="F129" s="84">
+        <v>129</v>
+      </c>
+      <c r="G129" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="84">
+        <v>1</v>
+      </c>
+      <c r="I129" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J129" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K129" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L129" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="84" customFormat="1">
+      <c r="A130" s="84">
+        <v>30030</v>
+      </c>
+      <c r="B130" s="84">
+        <v>1</v>
+      </c>
+      <c r="C130" s="85" t="s">
+        <v>599</v>
+      </c>
+      <c r="D130" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E130" s="85" t="s">
+        <v>523</v>
+      </c>
+      <c r="F130" s="84">
+        <v>130</v>
+      </c>
+      <c r="G130" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="84">
+        <v>1</v>
+      </c>
+      <c r="I130" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J130" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K130" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L130" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="84" customFormat="1">
+      <c r="A131" s="84">
+        <v>30031</v>
+      </c>
+      <c r="B131" s="84">
+        <v>1</v>
+      </c>
+      <c r="C131" s="85" t="s">
+        <v>600</v>
+      </c>
+      <c r="D131" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="E131" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="F131" s="84">
+        <v>131</v>
+      </c>
+      <c r="G131" s="84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="84">
+        <v>1</v>
+      </c>
+      <c r="I131" s="84">
+        <v>1604937600</v>
+      </c>
+      <c r="J131" s="84">
+        <v>32503651200</v>
+      </c>
+      <c r="K131" s="84">
+        <v>-1</v>
+      </c>
+      <c r="L131" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="84" customFormat="1">
+      <c r="A132" s="84">
+        <v>30032</v>
+      </c>
+      <c r="B132" s="84">
+        <v>1</v>
+      </c>
+      <c r="C132" s="85" t="s">
+        <v>518</v>
+      </c>
+      <c r="D132" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="E132" s="85" t="s">
         <v>528</v>
       </c>
-      <c r="F124" s="87">
-        <v>124</v>
-      </c>
-      <c r="G124" s="87" t="b">
+      <c r="F132" s="84">
+        <v>132</v>
+      </c>
+      <c r="G132" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="87">
-        <v>1</v>
-      </c>
-      <c r="I124" s="87">
+      <c r="H132" s="84">
+        <v>1</v>
+      </c>
+      <c r="I132" s="84">
         <v>1604937600</v>
       </c>
-      <c r="J124" s="87">
+      <c r="J132" s="84">
         <v>32503651200</v>
       </c>
-      <c r="K124" s="87">
+      <c r="K132" s="84">
         <v>-1</v>
       </c>
-      <c r="L124" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="87" customFormat="1">
-      <c r="A125" s="87">
-        <v>30025</v>
-      </c>
-      <c r="B125" s="87">
-        <v>1</v>
-      </c>
-      <c r="C125" s="88" t="s">
-        <v>518</v>
-      </c>
-      <c r="D125" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="E125" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="F125" s="87">
-        <v>125</v>
-      </c>
-      <c r="G125" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" s="87">
-        <v>1</v>
-      </c>
-      <c r="I125" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J125" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K125" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L125" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="87" customFormat="1">
-      <c r="A126" s="87">
-        <v>30026</v>
-      </c>
-      <c r="B126" s="87">
-        <v>1</v>
-      </c>
-      <c r="C126" s="88" t="s">
-        <v>572</v>
-      </c>
-      <c r="D126" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="E126" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="F126" s="87">
-        <v>126</v>
-      </c>
-      <c r="G126" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" s="87">
-        <v>1</v>
-      </c>
-      <c r="I126" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J126" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K126" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L126" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="87" customFormat="1">
-      <c r="A127" s="87">
-        <v>30027</v>
-      </c>
-      <c r="B127" s="87">
-        <v>1</v>
-      </c>
-      <c r="C127" s="88" t="s">
-        <v>519</v>
-      </c>
-      <c r="D127" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="E127" s="88" t="s">
-        <v>532</v>
-      </c>
-      <c r="F127" s="87">
-        <v>127</v>
-      </c>
-      <c r="G127" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" s="87">
-        <v>1</v>
-      </c>
-      <c r="I127" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J127" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K127" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L127" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="87" customFormat="1">
-      <c r="A128" s="87">
-        <v>30028</v>
-      </c>
-      <c r="B128" s="87">
-        <v>1</v>
-      </c>
-      <c r="C128" s="88" t="s">
-        <v>521</v>
-      </c>
-      <c r="D128" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="E128" s="88" t="s">
-        <v>533</v>
-      </c>
-      <c r="F128" s="87">
-        <v>128</v>
-      </c>
-      <c r="G128" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" s="87">
-        <v>1</v>
-      </c>
-      <c r="I128" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J128" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K128" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L128" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" s="87" customFormat="1">
-      <c r="A129" s="87">
-        <v>30029</v>
-      </c>
-      <c r="B129" s="87">
-        <v>1</v>
-      </c>
-      <c r="C129" s="88" t="s">
-        <v>522</v>
-      </c>
-      <c r="D129" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="E129" s="88" t="s">
-        <v>534</v>
-      </c>
-      <c r="F129" s="87">
-        <v>129</v>
-      </c>
-      <c r="G129" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" s="87">
-        <v>1</v>
-      </c>
-      <c r="I129" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J129" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K129" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L129" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="87" customFormat="1">
-      <c r="A130" s="87">
-        <v>30030</v>
-      </c>
-      <c r="B130" s="87">
-        <v>1</v>
-      </c>
-      <c r="C130" s="88" t="s">
-        <v>523</v>
-      </c>
-      <c r="D130" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="E130" s="88" t="s">
-        <v>530</v>
-      </c>
-      <c r="F130" s="87">
-        <v>130</v>
-      </c>
-      <c r="G130" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" s="87">
-        <v>1</v>
-      </c>
-      <c r="I130" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J130" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K130" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L130" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" s="87" customFormat="1">
-      <c r="A131" s="87">
-        <v>30031</v>
-      </c>
-      <c r="B131" s="87">
-        <v>1</v>
-      </c>
-      <c r="C131" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="D131" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="E131" s="88" t="s">
-        <v>531</v>
-      </c>
-      <c r="F131" s="87">
-        <v>131</v>
-      </c>
-      <c r="G131" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="87">
-        <v>1</v>
-      </c>
-      <c r="I131" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J131" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K131" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L131" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="87" customFormat="1">
-      <c r="A132" s="87">
-        <v>30032</v>
-      </c>
-      <c r="B132" s="87">
-        <v>1</v>
-      </c>
-      <c r="C132" s="88" t="s">
-        <v>525</v>
-      </c>
-      <c r="D132" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="E132" s="88" t="s">
-        <v>535</v>
-      </c>
-      <c r="F132" s="87">
-        <v>132</v>
-      </c>
-      <c r="G132" s="87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" s="87">
-        <v>1</v>
-      </c>
-      <c r="I132" s="87">
-        <v>1604937600</v>
-      </c>
-      <c r="J132" s="87">
-        <v>32503651200</v>
-      </c>
-      <c r="K132" s="87">
-        <v>-1</v>
-      </c>
-      <c r="L132" s="87">
+      <c r="L132" s="84">
         <v>1</v>
       </c>
     </row>
@@ -8659,7 +8638,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
@@ -8751,7 +8730,7 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="89" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
@@ -8778,7 +8757,7 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="89" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
@@ -10005,7 +9984,7 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="93" t="s">
+      <c r="F51" s="90" t="s">
         <v>222</v>
       </c>
       <c r="G51" s="52"/>
@@ -10424,7 +10403,7 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="94">
+      <c r="F68" s="91">
         <v>99999999999</v>
       </c>
       <c r="G68" s="55"/>
@@ -11696,7 +11675,7 @@
         <v>115</v>
       </c>
       <c r="E120" s="79"/>
-      <c r="F120" s="95">
+      <c r="F120" s="92">
         <v>5</v>
       </c>
       <c r="G120" s="79"/>
@@ -11719,7 +11698,7 @@
         <v>116</v>
       </c>
       <c r="E121" s="79"/>
-      <c r="F121" s="95">
+      <c r="F121" s="92">
         <v>1</v>
       </c>
       <c r="G121" s="79"/>
@@ -11742,7 +11721,7 @@
         <v>117</v>
       </c>
       <c r="E122" s="79"/>
-      <c r="F122" s="95">
+      <c r="F122" s="92">
         <v>30000</v>
       </c>
       <c r="G122" s="79"/>
@@ -11765,7 +11744,7 @@
         <v>117</v>
       </c>
       <c r="E123" s="79"/>
-      <c r="F123" s="95">
+      <c r="F123" s="92">
         <v>50000</v>
       </c>
       <c r="G123" s="79"/>
@@ -11788,7 +11767,7 @@
         <v>118</v>
       </c>
       <c r="E124" s="79"/>
-      <c r="F124" s="95">
+      <c r="F124" s="92">
         <v>500</v>
       </c>
       <c r="G124" s="79"/>
@@ -11799,209 +11778,209 @@
         <v>513</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="90" customFormat="1">
-      <c r="A125" s="87">
+    <row r="125" spans="1:10" s="87" customFormat="1">
+      <c r="A125" s="84">
         <v>124</v>
       </c>
-      <c r="B125" s="87">
+      <c r="B125" s="84">
         <v>124</v>
       </c>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89">
+      <c r="C125" s="86"/>
+      <c r="D125" s="86">
         <v>119</v>
       </c>
-      <c r="E125" s="89"/>
-      <c r="F125" s="96" t="s">
-        <v>538</v>
-      </c>
-      <c r="G125" s="89"/>
-      <c r="H125" s="96" t="s">
-        <v>567</v>
-      </c>
-      <c r="I125" s="91" t="s">
+      <c r="E125" s="86"/>
+      <c r="F125" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="G125" s="86"/>
+      <c r="H125" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="I125" s="88" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="87" customFormat="1">
+      <c r="A126" s="84">
+        <v>125</v>
+      </c>
+      <c r="B126" s="84">
+        <v>125</v>
+      </c>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86">
+        <v>120</v>
+      </c>
+      <c r="E126" s="86"/>
+      <c r="F126" s="93" t="s">
+        <v>532</v>
+      </c>
+      <c r="G126" s="86"/>
+      <c r="H126" s="93" t="s">
+        <v>570</v>
+      </c>
+      <c r="I126" s="88" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="87" customFormat="1">
+      <c r="A127" s="84">
+        <v>126</v>
+      </c>
+      <c r="B127" s="84">
+        <v>126</v>
+      </c>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86">
+        <v>121</v>
+      </c>
+      <c r="E127" s="86"/>
+      <c r="F127" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="G127" s="86"/>
+      <c r="H127" s="93" t="s">
+        <v>571</v>
+      </c>
+      <c r="I127" s="88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="87" customFormat="1">
+      <c r="A128" s="84">
+        <v>127</v>
+      </c>
+      <c r="B128" s="84">
+        <v>127</v>
+      </c>
+      <c r="C128" s="86"/>
+      <c r="D128" s="86">
+        <v>122</v>
+      </c>
+      <c r="E128" s="86"/>
+      <c r="F128" s="93" t="s">
+        <v>534</v>
+      </c>
+      <c r="G128" s="86"/>
+      <c r="H128" s="93" t="s">
+        <v>575</v>
+      </c>
+      <c r="I128" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="87" customFormat="1">
+      <c r="A129" s="84">
+        <v>128</v>
+      </c>
+      <c r="B129" s="84">
+        <v>128</v>
+      </c>
+      <c r="C129" s="86"/>
+      <c r="D129" s="86">
+        <v>119</v>
+      </c>
+      <c r="E129" s="86"/>
+      <c r="F129" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="G129" s="86"/>
+      <c r="H129" s="93" t="s">
+        <v>581</v>
+      </c>
+      <c r="I129" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="87" customFormat="1">
+      <c r="A130" s="84">
+        <v>129</v>
+      </c>
+      <c r="B130" s="84">
+        <v>129</v>
+      </c>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86">
+        <v>123</v>
+      </c>
+      <c r="E130" s="86"/>
+      <c r="F130" s="93" t="s">
+        <v>535</v>
+      </c>
+      <c r="G130" s="86"/>
+      <c r="H130" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="I130" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="87" customFormat="1">
+      <c r="A131" s="84">
+        <v>130</v>
+      </c>
+      <c r="B131" s="84">
+        <v>130</v>
+      </c>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86">
+        <v>124</v>
+      </c>
+      <c r="E131" s="86"/>
+      <c r="F131" s="93" t="s">
+        <v>536</v>
+      </c>
+      <c r="G131" s="86"/>
+      <c r="H131" s="93" t="s">
+        <v>586</v>
+      </c>
+      <c r="I131" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="87" customFormat="1">
+      <c r="A132" s="84">
+        <v>131</v>
+      </c>
+      <c r="B132" s="84">
+        <v>131</v>
+      </c>
+      <c r="C132" s="86"/>
+      <c r="D132" s="86">
+        <v>125</v>
+      </c>
+      <c r="E132" s="86"/>
+      <c r="F132" s="93" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" s="90" customFormat="1">
-      <c r="A126" s="87">
-        <v>125</v>
-      </c>
-      <c r="B126" s="87">
-        <v>125</v>
-      </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89">
-        <v>120</v>
-      </c>
-      <c r="E126" s="89"/>
-      <c r="F126" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="G126" s="89"/>
-      <c r="H126" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="I126" s="91" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="90" customFormat="1">
-      <c r="A127" s="87">
-        <v>126</v>
-      </c>
-      <c r="B127" s="87">
-        <v>126</v>
-      </c>
-      <c r="C127" s="89"/>
-      <c r="D127" s="89">
-        <v>121</v>
-      </c>
-      <c r="E127" s="89"/>
-      <c r="F127" s="96" t="s">
-        <v>573</v>
-      </c>
-      <c r="G127" s="89"/>
-      <c r="H127" s="96" t="s">
-        <v>579</v>
-      </c>
-      <c r="I127" s="91" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="90" customFormat="1">
-      <c r="A128" s="87">
-        <v>127</v>
-      </c>
-      <c r="B128" s="87">
-        <v>127</v>
-      </c>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89">
-        <v>122</v>
-      </c>
-      <c r="E128" s="89"/>
-      <c r="F128" s="96" t="s">
-        <v>541</v>
-      </c>
-      <c r="G128" s="89"/>
-      <c r="H128" s="96" t="s">
-        <v>583</v>
-      </c>
-      <c r="I128" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="90" customFormat="1">
-      <c r="A129" s="87">
-        <v>128</v>
-      </c>
-      <c r="B129" s="87">
-        <v>128</v>
-      </c>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89">
-        <v>119</v>
-      </c>
-      <c r="E129" s="89"/>
-      <c r="F129" s="96" t="s">
-        <v>540</v>
-      </c>
-      <c r="G129" s="89"/>
-      <c r="H129" s="96" t="s">
+      <c r="G132" s="86"/>
+      <c r="H132" s="93" t="s">
         <v>589</v>
       </c>
-      <c r="I129" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="90" customFormat="1">
-      <c r="A130" s="87">
-        <v>129</v>
-      </c>
-      <c r="B130" s="87">
-        <v>129</v>
-      </c>
-      <c r="C130" s="89"/>
-      <c r="D130" s="89">
-        <v>123</v>
-      </c>
-      <c r="E130" s="89"/>
-      <c r="F130" s="96" t="s">
-        <v>542</v>
-      </c>
-      <c r="G130" s="89"/>
-      <c r="H130" s="96" t="s">
-        <v>591</v>
-      </c>
-      <c r="I130" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="90" customFormat="1">
-      <c r="A131" s="87">
-        <v>130</v>
-      </c>
-      <c r="B131" s="87">
-        <v>130</v>
-      </c>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89">
-        <v>124</v>
-      </c>
-      <c r="E131" s="89"/>
-      <c r="F131" s="96" t="s">
-        <v>543</v>
-      </c>
-      <c r="G131" s="89"/>
-      <c r="H131" s="96" t="s">
-        <v>594</v>
-      </c>
-      <c r="I131" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="90" customFormat="1">
-      <c r="A132" s="87">
-        <v>131</v>
-      </c>
-      <c r="B132" s="87">
-        <v>131</v>
-      </c>
-      <c r="C132" s="89"/>
-      <c r="D132" s="89">
-        <v>125</v>
-      </c>
-      <c r="E132" s="89"/>
-      <c r="F132" s="96" t="s">
-        <v>544</v>
-      </c>
-      <c r="G132" s="89"/>
-      <c r="H132" s="96" t="s">
-        <v>597</v>
-      </c>
-      <c r="I132" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="90" customFormat="1">
-      <c r="A133" s="87">
+      <c r="I132" s="88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="87" customFormat="1">
+      <c r="A133" s="84">
         <v>132</v>
       </c>
-      <c r="B133" s="87">
+      <c r="B133" s="84">
         <v>132</v>
       </c>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="96" t="s">
-        <v>536</v>
-      </c>
-      <c r="G133" s="89"/>
-      <c r="H133" s="96" t="s">
-        <v>600</v>
-      </c>
-      <c r="I133" s="91" t="s">
-        <v>537</v>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="93" t="s">
+        <v>529</v>
+      </c>
+      <c r="G133" s="86"/>
+      <c r="H133" s="93" t="s">
+        <v>592</v>
+      </c>
+      <c r="I133" s="88" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -14002,7 +13981,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="84" t="s">
+      <c r="F120" s="97" t="s">
         <v>282</v>
       </c>
     </row>
@@ -14019,7 +13998,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="84"/>
+      <c r="F121" s="97"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -14034,7 +14013,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="84"/>
+      <c r="F122" s="97"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -14049,7 +14028,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="84"/>
+      <c r="F123" s="97"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -14064,7 +14043,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="84"/>
+      <c r="F124" s="97"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -14079,7 +14058,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="84"/>
+      <c r="F125" s="97"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -14094,7 +14073,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="84"/>
+      <c r="F126" s="97"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -14109,7 +14088,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="84"/>
+      <c r="F127" s="97"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -14124,7 +14103,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="84"/>
+      <c r="F128" s="97"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -14139,7 +14118,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="84"/>
+      <c r="F129" s="97"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -14154,7 +14133,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="84"/>
+      <c r="F130" s="97"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -14169,7 +14148,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="84"/>
+      <c r="F131" s="97"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -14184,7 +14163,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="84"/>
+      <c r="F132" s="97"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -14199,7 +14178,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="84"/>
+      <c r="F133" s="97"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -14214,7 +14193,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="84"/>
+      <c r="F134" s="97"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -14229,7 +14208,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="84"/>
+      <c r="F135" s="97"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -14294,8 +14273,8 @@
       <c r="B140" s="20">
         <v>106</v>
       </c>
-      <c r="C140" s="97" t="s">
-        <v>558</v>
+      <c r="C140" s="94" t="s">
+        <v>551</v>
       </c>
       <c r="D140" s="18">
         <v>0</v>
@@ -14435,7 +14414,7 @@
         <v>116</v>
       </c>
       <c r="C150" s="83" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D150" s="18">
         <v>44</v>
@@ -14477,7 +14456,7 @@
         <v>119</v>
       </c>
       <c r="C153" s="83" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D153" s="18">
         <v>0</v>
@@ -14491,7 +14470,7 @@
         <v>120</v>
       </c>
       <c r="C154" s="83" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D154" s="18">
         <v>46</v>
@@ -14505,7 +14484,7 @@
         <v>121</v>
       </c>
       <c r="C155" s="83" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D155" s="18">
         <v>47</v>
@@ -14519,7 +14498,7 @@
         <v>122</v>
       </c>
       <c r="C156" s="83" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D156" s="18">
         <v>0</v>
@@ -14533,7 +14512,7 @@
         <v>123</v>
       </c>
       <c r="C157" s="83" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D157" s="18">
         <v>48</v>
@@ -14547,7 +14526,7 @@
         <v>124</v>
       </c>
       <c r="C158" s="83" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D158" s="18">
         <v>0</v>
@@ -14561,7 +14540,7 @@
         <v>125</v>
       </c>
       <c r="C159" s="83" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D159" s="18">
         <v>0</v>
@@ -15906,7 +15885,7 @@
         <v>43</v>
       </c>
       <c r="C77" s="83" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -15923,10 +15902,10 @@
         <v>44</v>
       </c>
       <c r="C78" s="83" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E78" s="4">
         <v>2</v>
@@ -15957,10 +15936,10 @@
         <v>46</v>
       </c>
       <c r="C80" s="83" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D80" s="83" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E80" s="4">
         <v>2</v>
@@ -15974,10 +15953,10 @@
         <v>47</v>
       </c>
       <c r="C81" s="83" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D81" s="83" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E81" s="4">
         <v>2</v>
@@ -15991,10 +15970,10 @@
         <v>48</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -19716,8 +19695,8 @@
       <c r="B207" s="20">
         <v>189</v>
       </c>
-      <c r="C207" s="97" t="s">
-        <v>561</v>
+      <c r="C207" s="94" t="s">
+        <v>554</v>
       </c>
       <c r="D207" s="20">
         <v>400</v>
@@ -19734,7 +19713,7 @@
         <v>190</v>
       </c>
       <c r="C208" s="83" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D208" s="4">
         <v>20</v>
@@ -19751,7 +19730,7 @@
         <v>191</v>
       </c>
       <c r="C209" s="83" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D209" s="4">
         <v>5</v>
@@ -19768,7 +19747,7 @@
         <v>192</v>
       </c>
       <c r="C210" s="83" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D210" s="4">
         <v>5000</v>
@@ -19785,7 +19764,7 @@
         <v>193</v>
       </c>
       <c r="C211" s="83" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D211" s="4">
         <v>10000</v>
@@ -19802,7 +19781,7 @@
         <v>194</v>
       </c>
       <c r="C212" s="83" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D212" s="4">
         <v>10</v>
@@ -19812,1294 +19791,1294 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="87">
+      <c r="A213" s="84">
         <v>212</v>
       </c>
-      <c r="B213" s="89">
+      <c r="B213" s="86">
         <v>195</v>
       </c>
-      <c r="C213" s="98" t="s">
+      <c r="C213" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D213" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="E213" s="89">
+      <c r="D213" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E213" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="87">
+      <c r="A214" s="84">
         <v>213</v>
       </c>
-      <c r="B214" s="89">
+      <c r="B214" s="86">
         <v>195</v>
       </c>
-      <c r="C214" s="91" t="s">
+      <c r="C214" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D214" s="86">
+        <v>5</v>
+      </c>
+      <c r="E214" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="84">
+        <v>214</v>
+      </c>
+      <c r="B215" s="86">
+        <v>196</v>
+      </c>
+      <c r="C215" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D215" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E215" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="84">
+        <v>215</v>
+      </c>
+      <c r="B216" s="86">
+        <v>196</v>
+      </c>
+      <c r="C216" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D216" s="86">
+        <v>5</v>
+      </c>
+      <c r="E216" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="84">
+        <v>216</v>
+      </c>
+      <c r="B217" s="86">
+        <v>197</v>
+      </c>
+      <c r="C217" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D217" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E217" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="84">
+        <v>217</v>
+      </c>
+      <c r="B218" s="86">
+        <v>197</v>
+      </c>
+      <c r="C218" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D218" s="86">
+        <v>5</v>
+      </c>
+      <c r="E218" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="84">
+        <v>218</v>
+      </c>
+      <c r="B219" s="86">
+        <v>198</v>
+      </c>
+      <c r="C219" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D219" s="93" t="s">
+        <v>557</v>
+      </c>
+      <c r="E219" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="84">
+        <v>219</v>
+      </c>
+      <c r="B220" s="86">
+        <v>198</v>
+      </c>
+      <c r="C220" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D220" s="86">
+        <v>5</v>
+      </c>
+      <c r="E220" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="84">
+        <v>220</v>
+      </c>
+      <c r="B221" s="86">
+        <v>199</v>
+      </c>
+      <c r="C221" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D221" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E221" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="84">
+        <v>221</v>
+      </c>
+      <c r="B222" s="86">
+        <v>199</v>
+      </c>
+      <c r="C222" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D222" s="86">
+        <v>10</v>
+      </c>
+      <c r="E222" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="84">
+        <v>222</v>
+      </c>
+      <c r="B223" s="86">
+        <v>200</v>
+      </c>
+      <c r="C223" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D223" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E223" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="84">
+        <v>223</v>
+      </c>
+      <c r="B224" s="86">
+        <v>200</v>
+      </c>
+      <c r="C224" s="88" t="s">
+        <v>567</v>
+      </c>
+      <c r="D224" s="86">
+        <v>5</v>
+      </c>
+      <c r="E224" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="84">
+        <v>224</v>
+      </c>
+      <c r="B225" s="86">
+        <v>201</v>
+      </c>
+      <c r="C225" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D225" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E225" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="84">
+        <v>225</v>
+      </c>
+      <c r="B226" s="86">
+        <v>201</v>
+      </c>
+      <c r="C226" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D226" s="86">
+        <v>5</v>
+      </c>
+      <c r="E226" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="84">
+        <v>226</v>
+      </c>
+      <c r="B227" s="86">
+        <v>202</v>
+      </c>
+      <c r="C227" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D227" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E227" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="84">
+        <v>227</v>
+      </c>
+      <c r="B228" s="86">
+        <v>202</v>
+      </c>
+      <c r="C228" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D228" s="86">
+        <v>5</v>
+      </c>
+      <c r="E228" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="84">
+        <v>228</v>
+      </c>
+      <c r="B229" s="86">
+        <v>203</v>
+      </c>
+      <c r="C229" s="88" t="s">
         <v>562</v>
       </c>
-      <c r="D214" s="89">
-        <v>5</v>
-      </c>
-      <c r="E214" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="87">
+      <c r="D229" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E229" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="84">
+        <v>229</v>
+      </c>
+      <c r="B230" s="86">
+        <v>203</v>
+      </c>
+      <c r="C230" s="88" t="s">
+        <v>569</v>
+      </c>
+      <c r="D230" s="86">
+        <v>10</v>
+      </c>
+      <c r="E230" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="84">
+        <v>230</v>
+      </c>
+      <c r="B231" s="86">
+        <v>204</v>
+      </c>
+      <c r="C231" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="D231" s="86">
+        <v>8000</v>
+      </c>
+      <c r="E231" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="84">
+        <v>231</v>
+      </c>
+      <c r="B232" s="86">
+        <v>204</v>
+      </c>
+      <c r="C232" s="88" t="s">
+        <v>569</v>
+      </c>
+      <c r="D232" s="86">
+        <v>15</v>
+      </c>
+      <c r="E232" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="84">
+        <v>232</v>
+      </c>
+      <c r="B233" s="86">
+        <v>205</v>
+      </c>
+      <c r="C233" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D233" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E233" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="84">
+        <v>233</v>
+      </c>
+      <c r="B234" s="86">
+        <v>205</v>
+      </c>
+      <c r="C234" s="88" t="s">
+        <v>567</v>
+      </c>
+      <c r="D234" s="86">
+        <v>10</v>
+      </c>
+      <c r="E234" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="84">
+        <v>234</v>
+      </c>
+      <c r="B235" s="86">
+        <v>206</v>
+      </c>
+      <c r="C235" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D235" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E235" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="84">
+        <v>235</v>
+      </c>
+      <c r="B236" s="86">
+        <v>206</v>
+      </c>
+      <c r="C236" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D236" s="86">
+        <v>10</v>
+      </c>
+      <c r="E236" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="84">
+        <v>236</v>
+      </c>
+      <c r="B237" s="86">
+        <v>207</v>
+      </c>
+      <c r="C237" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D237" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E237" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="84">
+        <v>237</v>
+      </c>
+      <c r="B238" s="86">
+        <v>207</v>
+      </c>
+      <c r="C238" s="88" t="s">
+        <v>574</v>
+      </c>
+      <c r="D238" s="86">
+        <v>10</v>
+      </c>
+      <c r="E238" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="84">
+        <v>238</v>
+      </c>
+      <c r="B239" s="86">
+        <v>208</v>
+      </c>
+      <c r="C239" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D239" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E239" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="84">
+        <v>239</v>
+      </c>
+      <c r="B240" s="86">
+        <v>208</v>
+      </c>
+      <c r="C240" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D240" s="86">
+        <v>20</v>
+      </c>
+      <c r="E240" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="84">
+        <v>240</v>
+      </c>
+      <c r="B241" s="86">
+        <v>209</v>
+      </c>
+      <c r="C241" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D241" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E241" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="84">
+        <v>241</v>
+      </c>
+      <c r="B242" s="86">
+        <v>209</v>
+      </c>
+      <c r="C242" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D242" s="86">
+        <v>30</v>
+      </c>
+      <c r="E242" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="84">
+        <v>242</v>
+      </c>
+      <c r="B243" s="86">
+        <v>210</v>
+      </c>
+      <c r="C243" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D243" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E243" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="84">
+        <v>243</v>
+      </c>
+      <c r="B244" s="86">
+        <v>210</v>
+      </c>
+      <c r="C244" s="88" t="s">
+        <v>580</v>
+      </c>
+      <c r="D244" s="86">
+        <v>15</v>
+      </c>
+      <c r="E244" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="84">
+        <v>244</v>
+      </c>
+      <c r="B245" s="86">
+        <v>211</v>
+      </c>
+      <c r="C245" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D245" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="E245" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="84">
+        <v>245</v>
+      </c>
+      <c r="B246" s="86">
+        <v>211</v>
+      </c>
+      <c r="C246" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D246" s="86">
+        <v>15</v>
+      </c>
+      <c r="E246" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="84">
+        <v>246</v>
+      </c>
+      <c r="B247" s="86">
+        <v>212</v>
+      </c>
+      <c r="C247" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D247" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E247" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="84">
+        <v>247</v>
+      </c>
+      <c r="B248" s="86">
+        <v>212</v>
+      </c>
+      <c r="C248" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D248" s="86">
+        <v>15</v>
+      </c>
+      <c r="E248" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="84">
+        <v>248</v>
+      </c>
+      <c r="B249" s="86">
+        <v>213</v>
+      </c>
+      <c r="C249" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D249" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="E249" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="84">
+        <v>249</v>
+      </c>
+      <c r="B250" s="86">
+        <v>213</v>
+      </c>
+      <c r="C250" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D250" s="86">
+        <v>15</v>
+      </c>
+      <c r="E250" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="84">
+        <v>250</v>
+      </c>
+      <c r="B251" s="86">
         <v>214</v>
       </c>
-      <c r="B215" s="89">
-        <v>196</v>
-      </c>
-      <c r="C215" s="98" t="s">
+      <c r="C251" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D215" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E215" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="87">
+      <c r="D251" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E251" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="84">
+        <v>251</v>
+      </c>
+      <c r="B252" s="86">
+        <v>214</v>
+      </c>
+      <c r="C252" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D252" s="86">
+        <v>30</v>
+      </c>
+      <c r="E252" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="84">
+        <v>252</v>
+      </c>
+      <c r="B253" s="86">
         <v>215</v>
       </c>
-      <c r="B216" s="89">
-        <v>196</v>
-      </c>
-      <c r="C216" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D216" s="89">
-        <v>5</v>
-      </c>
-      <c r="E216" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="87">
+      <c r="C253" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D253" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E253" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="84">
+        <v>253</v>
+      </c>
+      <c r="B254" s="86">
+        <v>215</v>
+      </c>
+      <c r="C254" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D254" s="86">
+        <v>15</v>
+      </c>
+      <c r="E254" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="84">
+        <v>254</v>
+      </c>
+      <c r="B255" s="86">
         <v>216</v>
       </c>
-      <c r="B217" s="89">
-        <v>197</v>
-      </c>
-      <c r="C217" s="98" t="s">
+      <c r="C255" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D217" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E217" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="87">
+      <c r="D255" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E255" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="84">
+        <v>255</v>
+      </c>
+      <c r="B256" s="86">
+        <v>216</v>
+      </c>
+      <c r="C256" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D256" s="86">
+        <v>15</v>
+      </c>
+      <c r="E256" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="84">
+        <v>256</v>
+      </c>
+      <c r="B257" s="86">
         <v>217</v>
       </c>
-      <c r="B218" s="89">
-        <v>197</v>
-      </c>
-      <c r="C218" s="91" t="s">
-        <v>571</v>
-      </c>
-      <c r="D218" s="89">
-        <v>5</v>
-      </c>
-      <c r="E218" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="87">
+      <c r="C257" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D257" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E257" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="84">
+        <v>257</v>
+      </c>
+      <c r="B258" s="86">
+        <v>217</v>
+      </c>
+      <c r="C258" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D258" s="86">
+        <v>15</v>
+      </c>
+      <c r="E258" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="84">
+        <v>258</v>
+      </c>
+      <c r="B259" s="86">
         <v>218</v>
       </c>
-      <c r="B219" s="89">
-        <v>198</v>
-      </c>
-      <c r="C219" s="98" t="s">
+      <c r="C259" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D219" s="96" t="s">
-        <v>564</v>
-      </c>
-      <c r="E219" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="87">
+      <c r="D259" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E259" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="84">
+        <v>259</v>
+      </c>
+      <c r="B260" s="86">
+        <v>218</v>
+      </c>
+      <c r="C260" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D260" s="86">
+        <v>15</v>
+      </c>
+      <c r="E260" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="84">
+        <v>260</v>
+      </c>
+      <c r="B261" s="86">
         <v>219</v>
       </c>
-      <c r="B220" s="89">
-        <v>198</v>
-      </c>
-      <c r="C220" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D220" s="89">
-        <v>5</v>
-      </c>
-      <c r="E220" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="87">
+      <c r="C261" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D261" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E261" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="84">
+        <v>261</v>
+      </c>
+      <c r="B262" s="86">
+        <v>219</v>
+      </c>
+      <c r="C262" s="88" t="s">
+        <v>585</v>
+      </c>
+      <c r="D262" s="86">
+        <v>30</v>
+      </c>
+      <c r="E262" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="84">
+        <v>262</v>
+      </c>
+      <c r="B263" s="86">
         <v>220</v>
       </c>
-      <c r="B221" s="89">
-        <v>199</v>
-      </c>
-      <c r="C221" s="98" t="s">
+      <c r="C263" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D221" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="E221" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="87">
+      <c r="D263" s="96" t="s">
+        <v>577</v>
+      </c>
+      <c r="E263" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="84">
+        <v>263</v>
+      </c>
+      <c r="B264" s="86">
+        <v>220</v>
+      </c>
+      <c r="C264" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D264" s="86">
+        <v>15</v>
+      </c>
+      <c r="E264" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="84">
+        <v>264</v>
+      </c>
+      <c r="B265" s="86">
         <v>221</v>
       </c>
-      <c r="B222" s="89">
-        <v>199</v>
-      </c>
-      <c r="C222" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D222" s="89">
-        <v>10</v>
-      </c>
-      <c r="E222" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="87">
+      <c r="C265" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D265" s="96" t="s">
+        <v>568</v>
+      </c>
+      <c r="E265" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="84">
+        <v>265</v>
+      </c>
+      <c r="B266" s="86">
+        <v>221</v>
+      </c>
+      <c r="C266" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D266" s="86">
+        <v>15</v>
+      </c>
+      <c r="E266" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="84">
+        <v>266</v>
+      </c>
+      <c r="B267" s="86">
         <v>222</v>
       </c>
-      <c r="B223" s="89">
-        <v>200</v>
-      </c>
-      <c r="C223" s="98" t="s">
+      <c r="C267" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D223" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E223" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="87">
+      <c r="D267" s="96" t="s">
+        <v>584</v>
+      </c>
+      <c r="E267" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="84">
+        <v>267</v>
+      </c>
+      <c r="B268" s="86">
+        <v>222</v>
+      </c>
+      <c r="C268" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D268" s="86">
+        <v>15</v>
+      </c>
+      <c r="E268" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="84">
+        <v>268</v>
+      </c>
+      <c r="B269" s="86">
         <v>223</v>
       </c>
-      <c r="B224" s="89">
-        <v>200</v>
-      </c>
-      <c r="C224" s="91" t="s">
-        <v>575</v>
-      </c>
-      <c r="D224" s="89">
-        <v>5</v>
-      </c>
-      <c r="E224" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="87">
+      <c r="C269" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D269" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E269" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="84">
+        <v>269</v>
+      </c>
+      <c r="B270" s="86">
+        <v>223</v>
+      </c>
+      <c r="C270" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D270" s="86">
+        <v>20</v>
+      </c>
+      <c r="E270" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="84">
+        <v>270</v>
+      </c>
+      <c r="B271" s="86">
         <v>224</v>
       </c>
-      <c r="B225" s="89">
-        <v>201</v>
-      </c>
-      <c r="C225" s="98" t="s">
+      <c r="C271" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D225" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="E225" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="87">
+      <c r="D271" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E271" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="84">
+        <v>271</v>
+      </c>
+      <c r="B272" s="86">
+        <v>224</v>
+      </c>
+      <c r="C272" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D272" s="86">
+        <v>30</v>
+      </c>
+      <c r="E272" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="84">
+        <v>272</v>
+      </c>
+      <c r="B273" s="86">
         <v>225</v>
       </c>
-      <c r="B226" s="89">
-        <v>201</v>
-      </c>
-      <c r="C226" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D226" s="89">
-        <v>5</v>
-      </c>
-      <c r="E226" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="87">
+      <c r="C273" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D273" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E273" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="84">
+        <v>273</v>
+      </c>
+      <c r="B274" s="86">
+        <v>225</v>
+      </c>
+      <c r="C274" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D274" s="86">
+        <v>15</v>
+      </c>
+      <c r="E274" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="84">
+        <v>274</v>
+      </c>
+      <c r="B275" s="86">
         <v>226</v>
       </c>
-      <c r="B227" s="89">
-        <v>202</v>
-      </c>
-      <c r="C227" s="98" t="s">
+      <c r="C275" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="D227" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="E227" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="87">
+      <c r="D275" s="96" t="s">
+        <v>579</v>
+      </c>
+      <c r="E275" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="84">
+        <v>275</v>
+      </c>
+      <c r="B276" s="86">
+        <v>226</v>
+      </c>
+      <c r="C276" s="88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D276" s="86">
+        <v>15</v>
+      </c>
+      <c r="E276" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="84">
+        <v>276</v>
+      </c>
+      <c r="B277" s="86">
         <v>227</v>
       </c>
-      <c r="B228" s="89">
-        <v>202</v>
-      </c>
-      <c r="C228" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D228" s="89">
-        <v>5</v>
-      </c>
-      <c r="E228" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="87">
+      <c r="C277" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D277" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E277" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="84">
+        <v>277</v>
+      </c>
+      <c r="B278" s="86">
+        <v>227</v>
+      </c>
+      <c r="C278" s="88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D278" s="86">
+        <v>15</v>
+      </c>
+      <c r="E278" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="84">
+        <v>278</v>
+      </c>
+      <c r="B279" s="86">
         <v>228</v>
       </c>
-      <c r="B229" s="89">
-        <v>203</v>
-      </c>
-      <c r="C229" s="91" t="s">
-        <v>569</v>
-      </c>
-      <c r="D229" s="99" t="s">
-        <v>576</v>
-      </c>
-      <c r="E229" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="87">
+      <c r="C279" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D279" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E279" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="84">
+        <v>279</v>
+      </c>
+      <c r="B280" s="86">
+        <v>228</v>
+      </c>
+      <c r="C280" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="D280" s="86">
+        <v>20</v>
+      </c>
+      <c r="E280" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="84">
+        <v>280</v>
+      </c>
+      <c r="B281" s="86">
         <v>229</v>
       </c>
-      <c r="B230" s="89">
-        <v>203</v>
-      </c>
-      <c r="C230" s="91" t="s">
-        <v>577</v>
-      </c>
-      <c r="D230" s="89">
-        <v>10</v>
-      </c>
-      <c r="E230" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="87">
+      <c r="C281" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D281" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E281" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="84">
+        <v>281</v>
+      </c>
+      <c r="B282" s="86">
+        <v>229</v>
+      </c>
+      <c r="C282" s="88" t="s">
+        <v>587</v>
+      </c>
+      <c r="D282" s="86">
+        <v>30</v>
+      </c>
+      <c r="E282" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="84">
+        <v>282</v>
+      </c>
+      <c r="B283" s="86">
         <v>230</v>
       </c>
-      <c r="B231" s="89">
-        <v>204</v>
-      </c>
-      <c r="C231" s="91" t="s">
-        <v>570</v>
-      </c>
-      <c r="D231" s="89">
-        <v>8000</v>
-      </c>
-      <c r="E231" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="87">
+      <c r="C283" s="88" t="s">
+        <v>588</v>
+      </c>
+      <c r="D283" s="86">
+        <v>259200</v>
+      </c>
+      <c r="E283" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="84">
+        <v>283</v>
+      </c>
+      <c r="B284" s="86">
         <v>231</v>
       </c>
-      <c r="B232" s="89">
-        <v>204</v>
-      </c>
-      <c r="C232" s="91" t="s">
-        <v>577</v>
-      </c>
-      <c r="D232" s="89">
-        <v>15</v>
-      </c>
-      <c r="E232" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="87">
+      <c r="C284" s="88" t="s">
+        <v>590</v>
+      </c>
+      <c r="D284" s="86">
+        <v>80000</v>
+      </c>
+      <c r="E284" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="84">
+        <v>284</v>
+      </c>
+      <c r="B285" s="86">
         <v>232</v>
       </c>
-      <c r="B233" s="89">
-        <v>205</v>
-      </c>
-      <c r="C233" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D233" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="E233" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="87">
+      <c r="C285" s="88" t="s">
+        <v>561</v>
+      </c>
+      <c r="D285" s="86">
+        <v>100</v>
+      </c>
+      <c r="E285" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="84">
+        <v>285</v>
+      </c>
+      <c r="B286" s="86">
         <v>233</v>
       </c>
-      <c r="B234" s="89">
-        <v>205</v>
-      </c>
-      <c r="C234" s="91" t="s">
-        <v>575</v>
-      </c>
-      <c r="D234" s="89">
-        <v>10</v>
-      </c>
-      <c r="E234" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="87">
+      <c r="C286" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D286" s="86">
+        <v>500</v>
+      </c>
+      <c r="E286" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="84">
+        <v>286</v>
+      </c>
+      <c r="B287" s="86">
         <v>234</v>
       </c>
-      <c r="B235" s="89">
-        <v>206</v>
-      </c>
-      <c r="C235" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D235" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="E235" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="87">
+      <c r="C287" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D287" s="86">
+        <v>1500</v>
+      </c>
+      <c r="E287" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="84">
+        <v>287</v>
+      </c>
+      <c r="B288" s="86">
         <v>235</v>
       </c>
-      <c r="B236" s="89">
-        <v>206</v>
-      </c>
-      <c r="C236" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D236" s="89">
-        <v>10</v>
-      </c>
-      <c r="E236" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="87">
-        <v>236</v>
-      </c>
-      <c r="B237" s="89">
-        <v>207</v>
-      </c>
-      <c r="C237" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D237" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="E237" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="87">
-        <v>237</v>
-      </c>
-      <c r="B238" s="89">
-        <v>207</v>
-      </c>
-      <c r="C238" s="91" t="s">
-        <v>582</v>
-      </c>
-      <c r="D238" s="89">
-        <v>10</v>
-      </c>
-      <c r="E238" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="87">
-        <v>238</v>
-      </c>
-      <c r="B239" s="89">
-        <v>208</v>
-      </c>
-      <c r="C239" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D239" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E239" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="87">
-        <v>239</v>
-      </c>
-      <c r="B240" s="89">
-        <v>208</v>
-      </c>
-      <c r="C240" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D240" s="89">
-        <v>20</v>
-      </c>
-      <c r="E240" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="87">
-        <v>240</v>
-      </c>
-      <c r="B241" s="89">
-        <v>209</v>
-      </c>
-      <c r="C241" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D241" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E241" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="87">
-        <v>241</v>
-      </c>
-      <c r="B242" s="89">
-        <v>209</v>
-      </c>
-      <c r="C242" s="91" t="s">
-        <v>574</v>
-      </c>
-      <c r="D242" s="89">
-        <v>30</v>
-      </c>
-      <c r="E242" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="87">
-        <v>242</v>
-      </c>
-      <c r="B243" s="89">
-        <v>210</v>
-      </c>
-      <c r="C243" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D243" s="99" t="s">
-        <v>360</v>
-      </c>
-      <c r="E243" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="87">
-        <v>243</v>
-      </c>
-      <c r="B244" s="89">
-        <v>210</v>
-      </c>
-      <c r="C244" s="91" t="s">
-        <v>588</v>
-      </c>
-      <c r="D244" s="89">
-        <v>15</v>
-      </c>
-      <c r="E244" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="87">
-        <v>244</v>
-      </c>
-      <c r="B245" s="89">
-        <v>211</v>
-      </c>
-      <c r="C245" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D245" s="99" t="s">
-        <v>566</v>
-      </c>
-      <c r="E245" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="87">
-        <v>245</v>
-      </c>
-      <c r="B246" s="89">
-        <v>211</v>
-      </c>
-      <c r="C246" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D246" s="89">
-        <v>15</v>
-      </c>
-      <c r="E246" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="87">
-        <v>246</v>
-      </c>
-      <c r="B247" s="89">
-        <v>212</v>
-      </c>
-      <c r="C247" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D247" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E247" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="87">
-        <v>247</v>
-      </c>
-      <c r="B248" s="89">
-        <v>212</v>
-      </c>
-      <c r="C248" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D248" s="89">
-        <v>15</v>
-      </c>
-      <c r="E248" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="87">
-        <v>248</v>
-      </c>
-      <c r="B249" s="89">
-        <v>213</v>
-      </c>
-      <c r="C249" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D249" s="99" t="s">
-        <v>586</v>
-      </c>
-      <c r="E249" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="87">
-        <v>249</v>
-      </c>
-      <c r="B250" s="89">
-        <v>213</v>
-      </c>
-      <c r="C250" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="D250" s="89">
-        <v>15</v>
-      </c>
-      <c r="E250" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="87">
-        <v>250</v>
-      </c>
-      <c r="B251" s="89">
-        <v>214</v>
-      </c>
-      <c r="C251" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D251" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E251" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="87">
-        <v>251</v>
-      </c>
-      <c r="B252" s="89">
-        <v>214</v>
-      </c>
-      <c r="C252" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D252" s="89">
-        <v>30</v>
-      </c>
-      <c r="E252" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="87">
-        <v>252</v>
-      </c>
-      <c r="B253" s="89">
-        <v>215</v>
-      </c>
-      <c r="C253" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D253" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E253" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="87">
-        <v>253</v>
-      </c>
-      <c r="B254" s="89">
-        <v>215</v>
-      </c>
-      <c r="C254" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D254" s="89">
-        <v>15</v>
-      </c>
-      <c r="E254" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="87">
-        <v>254</v>
-      </c>
-      <c r="B255" s="89">
-        <v>216</v>
-      </c>
-      <c r="C255" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D255" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E255" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="87">
-        <v>255</v>
-      </c>
-      <c r="B256" s="89">
-        <v>216</v>
-      </c>
-      <c r="C256" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D256" s="89">
-        <v>15</v>
-      </c>
-      <c r="E256" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="87">
-        <v>256</v>
-      </c>
-      <c r="B257" s="89">
-        <v>217</v>
-      </c>
-      <c r="C257" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D257" s="99" t="s">
-        <v>576</v>
-      </c>
-      <c r="E257" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="87">
-        <v>257</v>
-      </c>
-      <c r="B258" s="89">
-        <v>217</v>
-      </c>
-      <c r="C258" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D258" s="89">
-        <v>15</v>
-      </c>
-      <c r="E258" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="87">
-        <v>258</v>
-      </c>
-      <c r="B259" s="89">
-        <v>218</v>
-      </c>
-      <c r="C259" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D259" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E259" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="87">
-        <v>259</v>
-      </c>
-      <c r="B260" s="89">
-        <v>218</v>
-      </c>
-      <c r="C260" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D260" s="89">
-        <v>15</v>
-      </c>
-      <c r="E260" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="87">
-        <v>260</v>
-      </c>
-      <c r="B261" s="89">
-        <v>219</v>
-      </c>
-      <c r="C261" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D261" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E261" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="87">
-        <v>261</v>
-      </c>
-      <c r="B262" s="89">
-        <v>219</v>
-      </c>
-      <c r="C262" s="91" t="s">
-        <v>593</v>
-      </c>
-      <c r="D262" s="89">
-        <v>30</v>
-      </c>
-      <c r="E262" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="87">
-        <v>262</v>
-      </c>
-      <c r="B263" s="89">
-        <v>220</v>
-      </c>
-      <c r="C263" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D263" s="99" t="s">
-        <v>585</v>
-      </c>
-      <c r="E263" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="87">
-        <v>263</v>
-      </c>
-      <c r="B264" s="89">
-        <v>220</v>
-      </c>
-      <c r="C264" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="D264" s="89">
-        <v>15</v>
-      </c>
-      <c r="E264" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="87">
-        <v>264</v>
-      </c>
-      <c r="B265" s="89">
-        <v>221</v>
-      </c>
-      <c r="C265" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D265" s="99" t="s">
-        <v>576</v>
-      </c>
-      <c r="E265" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="87">
-        <v>265</v>
-      </c>
-      <c r="B266" s="89">
-        <v>221</v>
-      </c>
-      <c r="C266" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D266" s="89">
-        <v>15</v>
-      </c>
-      <c r="E266" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="87">
-        <v>266</v>
-      </c>
-      <c r="B267" s="89">
-        <v>222</v>
-      </c>
-      <c r="C267" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D267" s="99" t="s">
-        <v>592</v>
-      </c>
-      <c r="E267" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="87">
-        <v>267</v>
-      </c>
-      <c r="B268" s="89">
-        <v>222</v>
-      </c>
-      <c r="C268" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D268" s="89">
-        <v>15</v>
-      </c>
-      <c r="E268" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="87">
-        <v>268</v>
-      </c>
-      <c r="B269" s="89">
-        <v>223</v>
-      </c>
-      <c r="C269" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D269" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E269" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="87">
-        <v>269</v>
-      </c>
-      <c r="B270" s="89">
-        <v>223</v>
-      </c>
-      <c r="C270" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D270" s="89">
-        <v>20</v>
-      </c>
-      <c r="E270" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="87">
-        <v>270</v>
-      </c>
-      <c r="B271" s="89">
-        <v>224</v>
-      </c>
-      <c r="C271" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D271" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E271" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="87">
-        <v>271</v>
-      </c>
-      <c r="B272" s="89">
-        <v>224</v>
-      </c>
-      <c r="C272" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D272" s="89">
-        <v>30</v>
-      </c>
-      <c r="E272" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="87">
-        <v>272</v>
-      </c>
-      <c r="B273" s="89">
-        <v>225</v>
-      </c>
-      <c r="C273" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D273" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E273" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="87">
-        <v>273</v>
-      </c>
-      <c r="B274" s="89">
-        <v>225</v>
-      </c>
-      <c r="C274" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="D274" s="89">
-        <v>15</v>
-      </c>
-      <c r="E274" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="87">
-        <v>274</v>
-      </c>
-      <c r="B275" s="89">
-        <v>226</v>
-      </c>
-      <c r="C275" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D275" s="99" t="s">
-        <v>587</v>
-      </c>
-      <c r="E275" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="87">
-        <v>275</v>
-      </c>
-      <c r="B276" s="89">
-        <v>226</v>
-      </c>
-      <c r="C276" s="91" t="s">
-        <v>565</v>
-      </c>
-      <c r="D276" s="89">
-        <v>15</v>
-      </c>
-      <c r="E276" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="87">
-        <v>276</v>
-      </c>
-      <c r="B277" s="89">
-        <v>227</v>
-      </c>
-      <c r="C277" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D277" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E277" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="87">
-        <v>277</v>
-      </c>
-      <c r="B278" s="89">
-        <v>227</v>
-      </c>
-      <c r="C278" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="D278" s="89">
-        <v>15</v>
-      </c>
-      <c r="E278" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="87">
-        <v>278</v>
-      </c>
-      <c r="B279" s="89">
-        <v>228</v>
-      </c>
-      <c r="C279" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D279" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E279" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="87">
-        <v>279</v>
-      </c>
-      <c r="B280" s="89">
-        <v>228</v>
-      </c>
-      <c r="C280" s="91" t="s">
-        <v>563</v>
-      </c>
-      <c r="D280" s="89">
-        <v>20</v>
-      </c>
-      <c r="E280" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="87">
-        <v>280</v>
-      </c>
-      <c r="B281" s="89">
-        <v>229</v>
-      </c>
-      <c r="C281" s="98" t="s">
-        <v>316</v>
-      </c>
-      <c r="D281" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="E281" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="87">
-        <v>281</v>
-      </c>
-      <c r="B282" s="89">
-        <v>229</v>
-      </c>
-      <c r="C282" s="91" t="s">
-        <v>595</v>
-      </c>
-      <c r="D282" s="89">
-        <v>30</v>
-      </c>
-      <c r="E282" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="87">
-        <v>282</v>
-      </c>
-      <c r="B283" s="89">
-        <v>230</v>
-      </c>
-      <c r="C283" s="91" t="s">
-        <v>596</v>
-      </c>
-      <c r="D283" s="89">
-        <v>259200</v>
-      </c>
-      <c r="E283" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="87">
-        <v>283</v>
-      </c>
-      <c r="B284" s="89">
-        <v>231</v>
-      </c>
-      <c r="C284" s="91" t="s">
-        <v>598</v>
-      </c>
-      <c r="D284" s="89">
-        <v>80000</v>
-      </c>
-      <c r="E284" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="87">
-        <v>284</v>
-      </c>
-      <c r="B285" s="89">
-        <v>232</v>
-      </c>
-      <c r="C285" s="91" t="s">
-        <v>568</v>
-      </c>
-      <c r="D285" s="89">
-        <v>100</v>
-      </c>
-      <c r="E285" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="87">
-        <v>285</v>
-      </c>
-      <c r="B286" s="89">
-        <v>233</v>
-      </c>
-      <c r="C286" s="91" t="s">
-        <v>599</v>
-      </c>
-      <c r="D286" s="89">
-        <v>500</v>
-      </c>
-      <c r="E286" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="87">
-        <v>286</v>
-      </c>
-      <c r="B287" s="89">
-        <v>234</v>
-      </c>
-      <c r="C287" s="91" t="s">
-        <v>599</v>
-      </c>
-      <c r="D287" s="89">
-        <v>1500</v>
-      </c>
-      <c r="E287" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="87">
-        <v>287</v>
-      </c>
-      <c r="B288" s="89">
-        <v>235</v>
-      </c>
-      <c r="C288" s="91" t="s">
-        <v>599</v>
-      </c>
-      <c r="D288" s="89">
+      <c r="C288" s="88" t="s">
+        <v>591</v>
+      </c>
+      <c r="D288" s="86">
         <v>3000</v>
       </c>
-      <c r="E288" s="89">
+      <c r="E288" s="86">
         <v>1</v>
       </c>
     </row>
@@ -21249,10 +21228,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="98" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="98">
         <v>1</v>
       </c>
     </row>
@@ -21260,8 +21239,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -21311,10 +21290,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="98" t="s">
         <v>423</v>
       </c>
     </row>
@@ -21322,17 +21301,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="98">
         <v>1</v>
       </c>
     </row>
@@ -21340,8 +21319,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -21446,10 +21425,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="99">
         <v>1</v>
       </c>
     </row>
@@ -21457,8 +21436,8 @@
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -54464,10 +54443,10 @@
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="98" t="s">
         <v>423</v>
       </c>
     </row>
@@ -54475,8 +54454,8 @@
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -54579,16 +54558,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
